--- a/data/Dataset.xlsx
+++ b/data/Dataset.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadmukhtar/Documents/python/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209EBA4-662B-3847-BDF6-37D86A790EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14351C-266A-9C4E-B09F-49A25949489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23980" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$269</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="541">
   <si>
     <t>DATE</t>
   </si>
@@ -796,6 +807,858 @@
   </si>
   <si>
     <t>PRIMETIME NEWS</t>
+  </si>
+  <si>
+    <t>METRO HARI INI</t>
+  </si>
+  <si>
+    <t>CUPLIKAN DIALOG. BURUH MENOLAK PROGRAM TAPERA</t>
+  </si>
+  <si>
+    <t>ANGGI HABISUAN</t>
+  </si>
+  <si>
+    <t>SAID IQBAL/PRESIDEN PARTAI BURUH</t>
+  </si>
+  <si>
+    <t>16:32 - 16:41</t>
+  </si>
+  <si>
+    <t>DIALOG. ANAK 9 TAHUN TEWAS TERBUNGKUS KARUNG</t>
+  </si>
+  <si>
+    <t>BIRU</t>
+  </si>
+  <si>
+    <t>KANIA SUTISNAWINATA</t>
+  </si>
+  <si>
+    <t>16:12 - 16:21</t>
+  </si>
+  <si>
+    <t>DIALOG. DEMI UANG, IBU MUDA TEGAS LECEHKAN ANAK SENDIRI</t>
+  </si>
+  <si>
+    <t>VERA BAHASUAN</t>
+  </si>
+  <si>
+    <t>KOMBES POL. ADE ARY S.I./KABID HUMAS PMJ</t>
+  </si>
+  <si>
+    <t>16:58 - 17:06</t>
+  </si>
+  <si>
+    <t>DIALOG. GERINDRA DUKUNG KADER GOLKAR DI PILGUB JAKARTA</t>
+  </si>
+  <si>
+    <t>FITRI MEGANTARA</t>
+  </si>
+  <si>
+    <t>17:12 - 17:19</t>
+  </si>
+  <si>
+    <t>DIALOG. BABAK BARU PERBURUAN HARUN MASIKU</t>
+  </si>
+  <si>
+    <t>HIBNU NUGROHO</t>
+  </si>
+  <si>
+    <t>17:03 - 17:21</t>
+  </si>
+  <si>
+    <t>DIALOG. TAPERA DIANGGAP BIKIN SENGSARA, BURUH BERSUARA</t>
+  </si>
+  <si>
+    <t>SAID IQBAL/PRESIDEN KSPI</t>
+  </si>
+  <si>
+    <t>16:59 - 17:04</t>
+  </si>
+  <si>
+    <t>DIALOG. JAGA ASA GARUDA KE PIALA DUNIA</t>
+  </si>
+  <si>
+    <t>ERWIN FITRIANSYAH/PENGAMAT SEPAKBOLA</t>
+  </si>
+  <si>
+    <t>17:12 - 17:21</t>
+  </si>
+  <si>
+    <t>DIALOG. PENGEROYOKAN BRUTAL BOS RENTAL MOBIL DI PATI</t>
+  </si>
+  <si>
+    <t>PATI</t>
+  </si>
+  <si>
+    <t>HENGGAR BUDI ANGGORO/PJ BUPATI PATI; ASEP IWAN IRIAWAN/PAKAR HUKUM PIDANA</t>
+  </si>
+  <si>
+    <t>16:28 - 16:35</t>
+  </si>
+  <si>
+    <t>DIALOG. TIMNAS GARUDA MENUJU PIALA DUNIA</t>
+  </si>
+  <si>
+    <t>AJI SANTOSO/MANTAN PEMAIN TIMNAS IND</t>
+  </si>
+  <si>
+    <t>17:09 - 17:14</t>
+  </si>
+  <si>
+    <t>DIALOG. POLISI BURU PELAKU LAIN PENGEROYOKAN BOS RENTAL</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>KOMBES. POL. SATAKE BAYU/KABID HUMAS POLDA JATENG</t>
+  </si>
+  <si>
+    <t>16:31 - 16:40</t>
+  </si>
+  <si>
+    <t>DIALOG. KPK SEBUT HARUN MASIKU DITANGKAP SEPEKAN DEPAN</t>
+  </si>
+  <si>
+    <t>17:13 - 17:21</t>
+  </si>
+  <si>
+    <t>DIALOG. PENGEROYOKAN BOS RENTAL, 10 ORANG DITANGKAP</t>
+  </si>
+  <si>
+    <t>IQBAL HIMAWAN</t>
+  </si>
+  <si>
+    <t>ASEP IWAN IRIAWAN/PAKAR HUKUM PIDANA</t>
+  </si>
+  <si>
+    <t>16:16 - 16:24</t>
+  </si>
+  <si>
+    <t>DIALOG. BAYI MENINGGAL DUNIA USAI DIIMUNISASI</t>
+  </si>
+  <si>
+    <t>SOSIAL</t>
+  </si>
+  <si>
+    <t>HUMANIS</t>
+  </si>
+  <si>
+    <t>WITA DARMAWANTI/KEPALA BIDANG P2P DINKES KOTA SUKABUMI</t>
+  </si>
+  <si>
+    <t>16:23 - 16:31</t>
+  </si>
+  <si>
+    <t>DIALOG. TAGIH JANJI SEMINGGU TANGKAP HARUN MASIKU</t>
+  </si>
+  <si>
+    <t>PRASWAD NUGROHO/MANTAN PENYIDIK KPK</t>
+  </si>
+  <si>
+    <t>16:10 - 16:20</t>
+  </si>
+  <si>
+    <t>DIALOG. SIDANG PRAPERASILAN PEGI DITUNDA</t>
+  </si>
+  <si>
+    <t>HUKUM</t>
+  </si>
+  <si>
+    <t>PIDANA</t>
+  </si>
+  <si>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>YUSUF WARSYIM/ANGGOTA KOMPOLNAS</t>
+  </si>
+  <si>
+    <t>17:03 - 17:11</t>
+  </si>
+  <si>
+    <t>DIALOG. PKS TINGGALKAN ANIES DI PILGUB JAKARTA</t>
+  </si>
+  <si>
+    <t>BILLY DAVID NEROTUMILENA/RELAWAN ANIES BASWEDAN</t>
+  </si>
+  <si>
+    <t>16:42 - 16:57</t>
+  </si>
+  <si>
+    <t>DIALOG. PUSAT DATA NASIONAL LUMPUH DIBOBOL HACKER</t>
+  </si>
+  <si>
+    <t>INDRA MAULANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBY ALAMSYAH/PAKAT DIGITAL FORENSIK </t>
+  </si>
+  <si>
+    <t>DIALOG. POLISI BONGKAR JUDI ONLINE OMZET MILARAH RUPIAH</t>
+  </si>
+  <si>
+    <t>BANYUMAS</t>
+  </si>
+  <si>
+    <t>FIFI ALEYDA</t>
+  </si>
+  <si>
+    <t>AKP DR. BENY TIMOR P/WAKASATRESKRIM POLRESTA BANYUMAS</t>
+  </si>
+  <si>
+    <t>16:58 - 17:09</t>
+  </si>
+  <si>
+    <t>DIALOG. SUDAH SEPEKAN PUSAT DATA NASIONAL DIBOBOL HACKER</t>
+  </si>
+  <si>
+    <t>PRATAMA PERSADHA/PAKAR KEAMANAN SIBER</t>
+  </si>
+  <si>
+    <t>16:24 - 16:31</t>
+  </si>
+  <si>
+    <t>DIALOG. WASPADA KOMPLOTAN BOBOL KOPER DI BANDARA</t>
+  </si>
+  <si>
+    <t>EVA WONDO</t>
+  </si>
+  <si>
+    <t>AKBP RONALD SIPAYUNG/WAKAPLRESTA BANDARA SOETTA</t>
+  </si>
+  <si>
+    <t>SELAMAT PAGI INDONESIA</t>
+  </si>
+  <si>
+    <t>08:28 - 08:37</t>
+  </si>
+  <si>
+    <t>AJUKAN JUDICIAL REVIEW, TOLAK TAPERA</t>
+  </si>
+  <si>
+    <t>DIALOG+H109:H154</t>
+  </si>
+  <si>
+    <t>MARSELINA &amp; NAILA</t>
+  </si>
+  <si>
+    <t>CHARLES SIMABURA</t>
+  </si>
+  <si>
+    <t>08:43 - 08:49</t>
+  </si>
+  <si>
+    <t>KALA NAMA KAESANG JADI REBUTAN DI BURSA PILKADA</t>
+  </si>
+  <si>
+    <t>YUNARTO WIJAYA, DEDEK PRAYUDI</t>
+  </si>
+  <si>
+    <t>08:52 - 08:59</t>
+  </si>
+  <si>
+    <t>09:27 - 09:37</t>
+  </si>
+  <si>
+    <t>DEWAN MEDSOS, KONTROL UNTUK SIAPA?</t>
+  </si>
+  <si>
+    <t>USMAN KANSONG</t>
+  </si>
+  <si>
+    <t>08:41 - 08:47</t>
+  </si>
+  <si>
+    <t>PUCUK PIMPINAN OTORITA IKN MUNDUR, ADA APA?</t>
+  </si>
+  <si>
+    <t>MARSELINA &amp; IQBAL</t>
+  </si>
+  <si>
+    <t>DANIS HIDAYAT SUMADILAGA</t>
+  </si>
+  <si>
+    <t>08:48 - 08:49</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAISAL</t>
+  </si>
+  <si>
+    <t>DANIS HIDAYAT SUMADILAGA, MOHAMMAD FAIZAL</t>
+  </si>
+  <si>
+    <t>08:38 - 08:43</t>
+  </si>
+  <si>
+    <t>JUAL NAMA TENAR DI PILKADA JABAR</t>
+  </si>
+  <si>
+    <t>NAILA &amp; JASON</t>
+  </si>
+  <si>
+    <t>ISMAIL FAHMI, DADANG RAHMAT HIDAYAT</t>
+  </si>
+  <si>
+    <t>08:47 - 08:58</t>
+  </si>
+  <si>
+    <t>09:21 - 09:31</t>
+  </si>
+  <si>
+    <t>DI BALIK OPTIMISME MEGA PROYEK IKN</t>
+  </si>
+  <si>
+    <t>ANDRINOF CHANIAGO, WIJAYANTO SAMIRIN</t>
+  </si>
+  <si>
+    <t>09:34 - 09:43</t>
+  </si>
+  <si>
+    <t>08:42 - 08:49</t>
+  </si>
+  <si>
+    <t>TIM SINKRONISASI PRABOWO, MULUSKAN PROSES TRANSISI</t>
+  </si>
+  <si>
+    <t>JASON</t>
+  </si>
+  <si>
+    <t>SILFESTER MATUTINA, ARDLI JOHAN KUSUMA</t>
+  </si>
+  <si>
+    <t>08:53 - 08:59</t>
+  </si>
+  <si>
+    <t>09:11 - 09:22</t>
+  </si>
+  <si>
+    <t>BERANTAS JUDI ONLINE MERAJALELA</t>
+  </si>
+  <si>
+    <t>NAILA &amp; FEBRIAN</t>
+  </si>
+  <si>
+    <t>ADRIANUS MELIALA, ERLANGGA BAYU</t>
+  </si>
+  <si>
+    <t>09:26 - 09:31</t>
+  </si>
+  <si>
+    <t>09:38 - 09:48</t>
+  </si>
+  <si>
+    <t>TREN BARU KASUS PERCERAIAN AKIBAT JUDI DARING</t>
+  </si>
+  <si>
+    <t>DEVIE RAHMAWATI</t>
+  </si>
+  <si>
+    <t>08:37 - 08:46</t>
+  </si>
+  <si>
+    <t>TIPS AMAN DAN SEHAT KONSUMSI DAGING KORBAN</t>
+  </si>
+  <si>
+    <t>FITRI HUDAYANI</t>
+  </si>
+  <si>
+    <t>09:22 - 09:34</t>
+  </si>
+  <si>
+    <t>ANIES BASWEDAN 'CURI' PERHATIAN PARPOL DI PILKADA</t>
+  </si>
+  <si>
+    <t>JUPITER, BURHANUDDIN MUHTADI</t>
+  </si>
+  <si>
+    <t>09:37 - 09:43</t>
+  </si>
+  <si>
+    <t>08:42 - 08:46</t>
+  </si>
+  <si>
+    <t>ALOKASI ANGGARAN PENDIDIKAN PERLU PEMBENAHAN</t>
+  </si>
+  <si>
+    <t>SYAIFUL HUDA, UBAID MATRAJI</t>
+  </si>
+  <si>
+    <t>08:50 - 08:58</t>
+  </si>
+  <si>
+    <t>MENGUJI 'JOKOWI EFFECT' DI PILKADA 2024</t>
+  </si>
+  <si>
+    <t>HABIBUROKHMAN, SAAN MUSTOPA</t>
+  </si>
+  <si>
+    <t>08:50 - 08:57</t>
+  </si>
+  <si>
+    <t>09:05 - 09:17</t>
+  </si>
+  <si>
+    <t>PELUNCURAN BUKU "PANCASILA DI RUMAHKU"</t>
+  </si>
+  <si>
+    <t>VALERIE</t>
+  </si>
+  <si>
+    <t>WILLY ADITYA, SUKIDI</t>
+  </si>
+  <si>
+    <t>09:21 - 09:29</t>
+  </si>
+  <si>
+    <t>ADOPSI AI UNTUK BISNIS DI INDONESIA</t>
+  </si>
+  <si>
+    <t>ROY KOSASIH</t>
+  </si>
+  <si>
+    <t>09:32 - 09:41</t>
+  </si>
+  <si>
+    <t>08:43 - 08:50</t>
+  </si>
+  <si>
+    <t>MENCARI SOSOK PIMPINAN KPK</t>
+  </si>
+  <si>
+    <t>SAUT SITUMORANG, KURNIA RAMADHANA</t>
+  </si>
+  <si>
+    <t>08:39 - 08:45</t>
+  </si>
+  <si>
+    <t>KEJAR PENANGANAN SERANGAN KEAMANAN SIBER</t>
+  </si>
+  <si>
+    <t>MARIA &amp; ANGGI</t>
+  </si>
+  <si>
+    <t>SILMY KARIM, TAUFIQ ASYHARI</t>
+  </si>
+  <si>
+    <t>08:51 - 09:00</t>
+  </si>
+  <si>
+    <t>09:26 - 09:39</t>
+  </si>
+  <si>
+    <t>ISU JOKOWI TAWARKAN KAESANG KE BANYAK PARPOL</t>
+  </si>
+  <si>
+    <t>CHICO HAKIM. HABIBUROKHMAN. DEDI KURNIA SYAH</t>
+  </si>
+  <si>
+    <t>09:42 - 09:51</t>
+  </si>
+  <si>
+    <t>08:39 - 08:47</t>
+  </si>
+  <si>
+    <t>TUNTUT TANGGUNG JAWAB MITIGASI KEAMANAN SIBER</t>
+  </si>
+  <si>
+    <t>KEMANAN</t>
+  </si>
+  <si>
+    <t>DAVE LAKSONO, CHARLES LIM</t>
+  </si>
+  <si>
+    <t>08:50 - 08:59</t>
+  </si>
+  <si>
+    <t>NEGARA HADIAHI PRESIDEN JOKOWI LAHAN 1,2 HEKTARE</t>
+  </si>
+  <si>
+    <t>JOANES JOKO</t>
+  </si>
+  <si>
+    <t>08:36 - 08:46</t>
+  </si>
+  <si>
+    <t>KAESANG MELEJIT DI BURSA PILKADA JATENG</t>
+  </si>
+  <si>
+    <t>VALLENCIA &amp; ANGGI</t>
+  </si>
+  <si>
+    <t>CHERYL TANZIL, BURHANUDDIN MUHTADI</t>
+  </si>
+  <si>
+    <t>09:21 - 09:28</t>
+  </si>
+  <si>
+    <t>HACKER OLOK OLOK KEAMANAN SIBER INDONESIA</t>
+  </si>
+  <si>
+    <t>BOBBY ADHITYO RIZALDI, AJI PUTRA AHARI</t>
+  </si>
+  <si>
+    <t>09:31 - 09:40</t>
+  </si>
+  <si>
+    <t>08:23 - 08:32</t>
+  </si>
+  <si>
+    <t>UNGKAP IDENTITAS ANGGOTA DPR MAIN JUDI ONLINE</t>
+  </si>
+  <si>
+    <t>VALLENCIA &amp; IQBAL</t>
+  </si>
+  <si>
+    <t>TRIMEDYA PANJAITAN</t>
+  </si>
+  <si>
+    <t>09:29 - 09:35</t>
+  </si>
+  <si>
+    <t>AKANKAH KEAMANAN SIBER NASIONAL TAK DIBOBOL LAGI?</t>
+  </si>
+  <si>
+    <t>ONNO W PURBO</t>
+  </si>
+  <si>
+    <t>09:44 - 09:50</t>
+  </si>
+  <si>
+    <t>09:53 - 09:58</t>
+  </si>
+  <si>
+    <t>08:26 - 08:31</t>
+  </si>
+  <si>
+    <t>BERI UTANG BERUJUNG PIDANA</t>
+  </si>
+  <si>
+    <t>NAILA &amp; ANGGI</t>
+  </si>
+  <si>
+    <t>ASEP IWAN IRIAWAN</t>
+  </si>
+  <si>
+    <t>08:41 - 08:52</t>
+  </si>
+  <si>
+    <t>WANTI EANTI JAGA MORALITAS PEMEGANG KUASA</t>
+  </si>
+  <si>
+    <t>ROBERT ENDI JAWENG</t>
+  </si>
+  <si>
+    <t>09:12 - 09:21</t>
+  </si>
+  <si>
+    <t>WASPADA HUJAN, PUNCAK MUSIM KEMARAU BERAKHIR?</t>
+  </si>
+  <si>
+    <t>FENOMENA</t>
+  </si>
+  <si>
+    <t>GUSWANTO</t>
+  </si>
+  <si>
+    <t>09:43 - 09:50</t>
+  </si>
+  <si>
+    <t>JASA JOKI LARI DEMI NVALIDASI MEDIA SOSIAL?</t>
+  </si>
+  <si>
+    <t>RAFAEL YEHEZKIEL, DEVIE RAHMAWATI</t>
+  </si>
+  <si>
+    <t>08:14 - 08:27</t>
+  </si>
+  <si>
+    <t>EVALUASI POLISI USAI BEBASNYA PEGI</t>
+  </si>
+  <si>
+    <t>ARYANTO SUTADI</t>
+  </si>
+  <si>
+    <t>08:36 - 08:53</t>
+  </si>
+  <si>
+    <t>KAESANG MAMPU TEROBOS "KANDANG BANTENG"?</t>
+  </si>
+  <si>
+    <t>ABDUL HAKIM, DJAYADI HANAN</t>
+  </si>
+  <si>
+    <t>08:56 - 08:59</t>
+  </si>
+  <si>
+    <t>PUSINGNYA MENCARI SEKOLAH SAAT PPDB USAI</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN</t>
+  </si>
+  <si>
+    <t>FORMAL</t>
+  </si>
+  <si>
+    <t>CECEP DARMAWAN</t>
+  </si>
+  <si>
+    <t>09:39 - 09:50</t>
+  </si>
+  <si>
+    <t>GEGER APLIKASI BERNAMA NYELENEH</t>
+  </si>
+  <si>
+    <t>ALMATUL QIBTIYAH</t>
+  </si>
+  <si>
+    <t>08:36 - 08:45</t>
+  </si>
+  <si>
+    <t>RANGKUL KAESANG, PKS INCAR JOKOWI EFFECT</t>
+  </si>
+  <si>
+    <t>VALLENCIA &amp; JASON</t>
+  </si>
+  <si>
+    <t>M QODARI, MUHAMMAD IQBAL, EFFENDI GAZALI</t>
+  </si>
+  <si>
+    <t>08:49 - 08:59</t>
+  </si>
+  <si>
+    <t>09:26 - 09:33</t>
+  </si>
+  <si>
+    <t>TERCENGANG VONIS BEBAS TERDAKWA KERANGKENG MANUSIA</t>
+  </si>
+  <si>
+    <t>ANIS HIDAYAH, ASEP IWAN IRIAWAN</t>
+  </si>
+  <si>
+    <t>09:36 - 09:43</t>
+  </si>
+  <si>
+    <t>17:07 - 17:07</t>
+  </si>
+  <si>
+    <t>METRO SIANG</t>
+  </si>
+  <si>
+    <t>11:41 - 11:51</t>
+  </si>
+  <si>
+    <t>KPU AKOMODASI PUTUSAN MA SOAL USIA KEPALA DAERAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQBAL HIMAWAN &amp; VALLENCIA MELVINSY </t>
+  </si>
+  <si>
+    <t>FERI AMSARI</t>
+  </si>
+  <si>
+    <t>11:40 - 11:48</t>
+  </si>
+  <si>
+    <t>MOTIF HACKER PDNS MINTA MAAF</t>
+  </si>
+  <si>
+    <t>BLUE COLLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQBAL HIMAWAN &amp; YOHANA MARGARETHA </t>
+  </si>
+  <si>
+    <t>ALFONS TANUJAYA</t>
+  </si>
+  <si>
+    <t>11:55 - 12:06</t>
+  </si>
+  <si>
+    <t>VIRAL, PENSIUANAN GURU TK DIMINTA KEMBALIKAN GAJI</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>ASNIATI (GURU TK)</t>
+  </si>
+  <si>
+    <t>11:27 - 11:34</t>
+  </si>
+  <si>
+    <t>PEMILU 2024 USAI, HASYIM SELESAI</t>
+  </si>
+  <si>
+    <t>ANGGI HASIBUAN &amp; NAILA HUSNA</t>
+  </si>
+  <si>
+    <t>TITI ANGGRAENI</t>
+  </si>
+  <si>
+    <t>12:02 - 12:06</t>
+  </si>
+  <si>
+    <t>INDUSTRI TEKSTIL RI TERGULUNG PRODUK ASING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEMA TANJUNG &amp; ANGGI HASIBUAN </t>
+  </si>
+  <si>
+    <t>BARA K HASIBUAN (KEMENDAGRI)</t>
+  </si>
+  <si>
+    <t>12:09 - 12:16</t>
+  </si>
+  <si>
+    <t>HIKMAH SIANG: MENJAGA MORAL &amp; ETIKA PEMIMPIN</t>
+  </si>
+  <si>
+    <t>VARIOUS</t>
+  </si>
+  <si>
+    <t>ROMO RFANZ MAGNIS SUSENO</t>
+  </si>
+  <si>
+    <t>11:32 - 11:36</t>
+  </si>
+  <si>
+    <t>PENCARIAN KORBAN LONGSOR TAMBANG EMAS</t>
+  </si>
+  <si>
+    <t>BENCANA</t>
+  </si>
+  <si>
+    <t>ALAM</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>HERIYANTO (KABASARNAS GORONTALO)</t>
+  </si>
+  <si>
+    <t>12:07 - 12:17</t>
+  </si>
+  <si>
+    <t>INDONESIA IMPOR DOKTER ASING</t>
+  </si>
+  <si>
+    <t>M AIBI (IDI)</t>
+  </si>
+  <si>
+    <t>11:45 - 11:54</t>
+  </si>
+  <si>
+    <t>MERAIH JUARA DI AJANG OLIMPIADE PARIS 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEMA TANJUNG &amp; VALLENCIA MELVINSY </t>
+  </si>
+  <si>
+    <t>12:19 - 12:34</t>
+  </si>
+  <si>
+    <t>UBAH PERATURAN KPU, KONSULTASI DPR DULU</t>
+  </si>
+  <si>
+    <t>IDHAM HOLIK &amp; AHMAD DOLI</t>
+  </si>
+  <si>
+    <t>11:57 - 12:05</t>
+  </si>
+  <si>
+    <t>BEREBUT CAWAGUB JAKARTA</t>
+  </si>
+  <si>
+    <t>AHMAD RIZA PATRIA</t>
+  </si>
+  <si>
+    <t>11:50 - 12:05</t>
+  </si>
+  <si>
+    <t>DUGAAN KORUPSI PENYELENGGARAAN HAJI 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGGI HASIBUAN &amp; VALLENCIA MELVINSY </t>
+  </si>
+  <si>
+    <t>LULUK NUR</t>
+  </si>
+  <si>
+    <t>11:56 - 12:04</t>
+  </si>
+  <si>
+    <t>GARUDA MUDA SIAP TEMPUR DI PIALA AFF U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQBAL HIMAWAN &amp; MARIALIZIA HASNI </t>
+  </si>
+  <si>
+    <t>ANTON SANJOYO</t>
+  </si>
+  <si>
+    <t>12:20 - 12:26</t>
+  </si>
+  <si>
+    <t>INTEGRITAS CAPIM KPK DINANTI</t>
+  </si>
+  <si>
+    <t>ARIF SATRIA</t>
+  </si>
+  <si>
+    <t>11:46 - 11:54</t>
+  </si>
+  <si>
+    <t>DUDUK PERKARA RATUSAN GURU HONORER DIPECAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGGI HASIBUAN  &amp; MARIALIZIA HASNI </t>
+  </si>
+  <si>
+    <t>12:17 - 12:22</t>
+  </si>
+  <si>
+    <t>2025, KENDARAAN BERMOTOR WAJIB ASURANSI</t>
+  </si>
+  <si>
+    <t>MIKRO</t>
+  </si>
+  <si>
+    <t>TRUBUS</t>
+  </si>
+  <si>
+    <t>11:12 - 11:17</t>
+  </si>
+  <si>
+    <t>EVAKUASI BODI HELI POLRI JATUH DIBELITUNG</t>
+  </si>
+  <si>
+    <t>HUMAN ERROR</t>
+  </si>
+  <si>
+    <t>BELITUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASON SAMBOUW &amp; MARIALIZIA HASNI </t>
+  </si>
+  <si>
+    <t>12:25 - 12:36</t>
+  </si>
+  <si>
+    <t>KOMITMEN BAKAL CAGUB JABAR BANGUN INDUSTRI</t>
+  </si>
+  <si>
+    <t>ILHAM HABIBIE</t>
+  </si>
+  <si>
+    <t>12:08 - 12:16</t>
+  </si>
+  <si>
+    <t>MENGHADAPI KOMBINASI FENOMENA CUACA</t>
+  </si>
+  <si>
+    <t>MARSELINA TUMUNDO &amp; VALLENCIA MELVINSY</t>
   </si>
 </sst>
 </file>
@@ -820,7 +1683,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +1700,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -867,7 +1736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +1750,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,10 +2044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N87"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1176,7 +2060,7 @@
     <col min="5" max="5" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45446</v>
       </c>
@@ -1263,8 +2147,9 @@
       <c r="N2" s="6">
         <v>2.0444444444444443</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45446</v>
       </c>
@@ -1308,7 +2193,7 @@
         <v>1.6416666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45446</v>
       </c>
@@ -1352,7 +2237,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45446</v>
       </c>
@@ -1396,7 +2281,7 @@
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45446</v>
       </c>
@@ -1440,7 +2325,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45446</v>
       </c>
@@ -1484,7 +2369,7 @@
         <v>1.9166666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45447</v>
       </c>
@@ -1528,7 +2413,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45447</v>
       </c>
@@ -1571,8 +2456,9 @@
       <c r="N9" s="6">
         <v>1.1583333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45447</v>
       </c>
@@ -1615,8 +2501,9 @@
       <c r="N10" s="6">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45447</v>
       </c>
@@ -1660,7 +2547,7 @@
         <v>1.5571428571428569</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45447</v>
       </c>
@@ -1704,7 +2591,7 @@
         <v>0.98000000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45447</v>
       </c>
@@ -1748,7 +2635,7 @@
         <v>0.98000000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45447</v>
       </c>
@@ -1792,7 +2679,7 @@
         <v>1.4200000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45447</v>
       </c>
@@ -1836,7 +2723,7 @@
         <v>0.26000000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45448</v>
       </c>
@@ -1880,7 +2767,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45448</v>
       </c>
@@ -1924,7 +2811,7 @@
         <v>4.4799999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45448</v>
       </c>
@@ -1968,7 +2855,7 @@
         <v>5.4857142857142858</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>45448</v>
       </c>
@@ -2012,7 +2899,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45448</v>
       </c>
@@ -2056,7 +2943,7 @@
         <v>0.22857142857142862</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>45448</v>
       </c>
@@ -2100,7 +2987,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45448</v>
       </c>
@@ -2144,7 +3031,7 @@
         <v>0.88571428571428579</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45448</v>
       </c>
@@ -2188,7 +3075,7 @@
         <v>1.2750000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45449</v>
       </c>
@@ -2231,8 +3118,9 @@
       <c r="N24" s="6">
         <v>0.55625000000000013</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45449</v>
       </c>
@@ -2276,7 +3164,7 @@
         <v>1.2142857142857142</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45449</v>
       </c>
@@ -2320,7 +3208,7 @@
         <v>3.0727272727272732</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45449</v>
       </c>
@@ -2364,7 +3252,7 @@
         <v>3.1875000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45452</v>
       </c>
@@ -2408,7 +3296,7 @@
         <v>2.7583333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45453</v>
       </c>
@@ -2452,7 +3340,7 @@
         <v>0.84736842105263166</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45453</v>
       </c>
@@ -2496,7 +3384,7 @@
         <v>2.5166666666666671</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>45453</v>
       </c>
@@ -2540,7 +3428,7 @@
         <v>1.4583333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>45453</v>
       </c>
@@ -2584,7 +3472,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45454</v>
       </c>
@@ -2628,7 +3516,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45454</v>
       </c>
@@ -2672,7 +3560,7 @@
         <v>3.0428571428571436</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45454</v>
       </c>
@@ -2716,7 +3604,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45454</v>
       </c>
@@ -2760,7 +3648,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45454</v>
       </c>
@@ -2804,7 +3692,7 @@
         <v>1.1636363636363636</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45455</v>
       </c>
@@ -2848,7 +3736,7 @@
         <v>1.2666666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45455</v>
       </c>
@@ -2892,7 +3780,7 @@
         <v>0.79230769230769238</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45455</v>
       </c>
@@ -2936,7 +3824,7 @@
         <v>1.3200000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45455</v>
       </c>
@@ -2980,7 +3868,7 @@
         <v>3.3909090909090907</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45455</v>
       </c>
@@ -3024,7 +3912,7 @@
         <v>1.4200000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>45456</v>
       </c>
@@ -3068,7 +3956,7 @@
         <v>1.9076923076923078</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45456</v>
       </c>
@@ -3112,7 +4000,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45456</v>
       </c>
@@ -3156,7 +4044,7 @@
         <v>2.4384615384615387</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45456</v>
       </c>
@@ -3200,7 +4088,7 @@
         <v>1.6300000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45456</v>
       </c>
@@ -3288,7 +4176,7 @@
         <v>3.0249999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45460</v>
       </c>
@@ -3332,7 +4220,7 @@
         <v>2.7888888888888888</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>45460</v>
       </c>
@@ -3376,7 +4264,7 @@
         <v>1.7090909090909092</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>45460</v>
       </c>
@@ -3420,7 +4308,7 @@
         <v>2.8181818181818183</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>45460</v>
       </c>
@@ -3464,7 +4352,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>45461</v>
       </c>
@@ -3508,7 +4396,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45461</v>
       </c>
@@ -3552,7 +4440,7 @@
         <v>0.92307692307692291</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>45461</v>
       </c>
@@ -3596,7 +4484,7 @@
         <v>0.59000000000000008</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45461</v>
       </c>
@@ -3640,7 +4528,7 @@
         <v>3.5076923076923077</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>45461</v>
       </c>
@@ -3684,7 +4572,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>45462</v>
       </c>
@@ -3727,8 +4615,9 @@
       <c r="N58" s="6">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>45462</v>
       </c>
@@ -3772,7 +4661,7 @@
         <v>1.4666666666666668</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>45462</v>
       </c>
@@ -3816,7 +4705,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45462</v>
       </c>
@@ -3860,7 +4749,7 @@
         <v>3.4624999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>45462</v>
       </c>
@@ -3904,7 +4793,7 @@
         <v>3.3714285714285714</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>45462</v>
       </c>
@@ -3948,7 +4837,7 @@
         <v>0.97000000000000008</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>45462</v>
       </c>
@@ -4036,7 +4925,7 @@
         <v>3.2555555555555551</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>45463</v>
       </c>
@@ -4080,7 +4969,7 @@
         <v>3.5529411764705885</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>45463</v>
       </c>
@@ -4124,7 +5013,7 @@
         <v>2.1923076923076916</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>45466</v>
       </c>
@@ -4168,7 +5057,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>45467</v>
       </c>
@@ -4212,7 +5101,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>45467</v>
       </c>
@@ -4256,7 +5145,7 @@
         <v>1.3533333333333333</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>45467</v>
       </c>
@@ -4300,7 +5189,7 @@
         <v>0.85714285714285732</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>45467</v>
       </c>
@@ -4344,7 +5233,7 @@
         <v>1.0857142857142859</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>45467</v>
       </c>
@@ -4388,7 +5277,7 @@
         <v>1.2333333333333334</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>45468</v>
       </c>
@@ -4432,7 +5321,7 @@
         <v>2.6727272727272728</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>45468</v>
       </c>
@@ -4476,7 +5365,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>45468</v>
       </c>
@@ -4520,7 +5409,7 @@
         <v>3.4428571428571417</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>45468</v>
       </c>
@@ -4564,7 +5453,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>45468</v>
       </c>
@@ -4608,7 +5497,7 @@
         <v>5.5666666666666655</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>45469</v>
       </c>
@@ -4652,7 +5541,7 @@
         <v>1.4071428571428568</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>45469</v>
       </c>
@@ -4696,7 +5585,7 @@
         <v>1.5428571428571429</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>45469</v>
       </c>
@@ -4740,7 +5629,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>45469</v>
       </c>
@@ -4784,7 +5673,7 @@
         <v>3.4363636363636361</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>45469</v>
       </c>
@@ -4872,7 +5761,7 @@
         <v>1.1750000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>45470</v>
       </c>
@@ -4916,7 +5805,7 @@
         <v>1.3833333333333337</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>45470</v>
       </c>
@@ -5004,7 +5893,7732 @@
         <v>2.7111111111111104</v>
       </c>
     </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N88" s="6">
+        <v>2.0444444444444443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0.30833333333333324</v>
+      </c>
+      <c r="N89" s="6">
+        <v>1.6416666666666666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N90" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="6">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="N91" s="6">
+        <v>1.4750000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" t="s">
+        <v>36</v>
+      </c>
+      <c r="M92" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="N92" s="6">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93" t="s">
+        <v>38</v>
+      </c>
+      <c r="M93" s="6">
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="N93" s="6">
+        <v>1.9166666666666663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N94" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B95" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>20</v>
+      </c>
+      <c r="K95" t="s">
+        <v>48</v>
+      </c>
+      <c r="L95" t="s">
+        <v>49</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="N95" s="6">
+        <v>1.1583333333333334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B96" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L96" t="s">
+        <v>51</v>
+      </c>
+      <c r="M96" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s">
+        <v>44</v>
+      </c>
+      <c r="L97" t="s">
+        <v>55</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N97" s="6">
+        <v>1.5571428571428569</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B98" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s">
+        <v>48</v>
+      </c>
+      <c r="L98" t="s">
+        <v>58</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B99" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s">
+        <v>48</v>
+      </c>
+      <c r="L99" t="s">
+        <v>58</v>
+      </c>
+      <c r="M99" s="6">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s">
+        <v>48</v>
+      </c>
+      <c r="L100" t="s">
+        <v>58</v>
+      </c>
+      <c r="M100" s="6">
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="N100" s="6">
+        <v>1.4200000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s">
+        <v>48</v>
+      </c>
+      <c r="L101" t="s">
+        <v>58</v>
+      </c>
+      <c r="M101" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0.26000000000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>65</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L102" t="s">
+        <v>66</v>
+      </c>
+      <c r="M102" s="6">
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="N102" s="6">
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B103" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" t="s">
+        <v>20</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L103" t="s">
+        <v>22</v>
+      </c>
+      <c r="M103" s="6">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="N103" s="6">
+        <v>4.4799999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B104" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L104" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" s="6">
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="N104" s="6">
+        <v>5.4857142857142858</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M105" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="N105" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B106" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s">
+        <v>75</v>
+      </c>
+      <c r="I106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L106" t="s">
+        <v>76</v>
+      </c>
+      <c r="M106" s="6">
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="N106" s="6">
+        <v>0.22857142857142862</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B107" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L107" t="s">
+        <v>76</v>
+      </c>
+      <c r="M107" s="6">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B108" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L108" t="s">
+        <v>81</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0.88571428571428579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B109" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L109" t="s">
+        <v>84</v>
+      </c>
+      <c r="M109" s="6">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="N109" s="6">
+        <v>1.2750000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B110" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" t="s">
+        <v>87</v>
+      </c>
+      <c r="M110" s="6">
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0.55625000000000013</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B111" t="s">
+        <v>256</v>
+      </c>
+      <c r="C111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>89</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>90</v>
+      </c>
+      <c r="H111" t="s">
+        <v>91</v>
+      </c>
+      <c r="I111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" t="s">
+        <v>92</v>
+      </c>
+      <c r="M111" s="6">
+        <v>0.21428571428571425</v>
+      </c>
+      <c r="N111" s="6">
+        <v>1.2142857142857142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B112" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L112" t="s">
+        <v>95</v>
+      </c>
+      <c r="M112" s="6">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="N112" s="6">
+        <v>3.0727272727272732</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B113" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" t="s">
+        <v>96</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L113" t="s">
+        <v>95</v>
+      </c>
+      <c r="M113" s="6">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="N113" s="6">
+        <v>3.1875000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>45452</v>
+      </c>
+      <c r="B114" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="5">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I114" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L114" t="s">
+        <v>100</v>
+      </c>
+      <c r="M114" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="N114" s="6">
+        <v>2.7583333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>45453</v>
+      </c>
+      <c r="B115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L115" t="s">
+        <v>103</v>
+      </c>
+      <c r="M115" s="6">
+        <v>0.12631578947368424</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0.84736842105263166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>45453</v>
+      </c>
+      <c r="B116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L116" t="s">
+        <v>106</v>
+      </c>
+      <c r="M116" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N116" s="6">
+        <v>2.5166666666666671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>45453</v>
+      </c>
+      <c r="B117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>108</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s">
+        <v>91</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" t="s">
+        <v>109</v>
+      </c>
+      <c r="M117" s="6">
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="N117" s="6">
+        <v>1.4583333333333337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>45453</v>
+      </c>
+      <c r="B118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>90</v>
+      </c>
+      <c r="H118" t="s">
+        <v>91</v>
+      </c>
+      <c r="I118" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L118" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="6">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="N118" s="6">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>113</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s">
+        <v>42</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L119" t="s">
+        <v>114</v>
+      </c>
+      <c r="M119" s="6">
+        <v>0.61666666666666659</v>
+      </c>
+      <c r="N119" s="6">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>65</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L120" t="s">
+        <v>117</v>
+      </c>
+      <c r="M120" s="6">
+        <v>0.62142857142857155</v>
+      </c>
+      <c r="N120" s="6">
+        <v>3.0428571428571436</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B121" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>90</v>
+      </c>
+      <c r="H121" t="s">
+        <v>91</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L121" t="s">
+        <v>120</v>
+      </c>
+      <c r="M121" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N121" s="6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" t="s">
+        <v>91</v>
+      </c>
+      <c r="I122" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L122" t="s">
+        <v>120</v>
+      </c>
+      <c r="M122" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N122" s="6">
+        <v>0.45714285714285713</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>121</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L123" t="s">
+        <v>123</v>
+      </c>
+      <c r="M123" s="6">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="N123" s="6">
+        <v>1.1636363636363636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>125</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>90</v>
+      </c>
+      <c r="H124" t="s">
+        <v>126</v>
+      </c>
+      <c r="I124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L124" t="s">
+        <v>127</v>
+      </c>
+      <c r="M124" s="6">
+        <v>0.18888888888888891</v>
+      </c>
+      <c r="N124" s="6">
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>125</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>90</v>
+      </c>
+      <c r="H125" t="s">
+        <v>126</v>
+      </c>
+      <c r="I125" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L125" t="s">
+        <v>129</v>
+      </c>
+      <c r="M125" s="6">
+        <v>0.13846153846153844</v>
+      </c>
+      <c r="N125" s="6">
+        <v>0.79230769230769238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B126" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>131</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>90</v>
+      </c>
+      <c r="H126" t="s">
+        <v>126</v>
+      </c>
+      <c r="I126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L126" t="s">
+        <v>132</v>
+      </c>
+      <c r="M126" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="N126" s="6">
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>134</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L127" t="s">
+        <v>135</v>
+      </c>
+      <c r="M127" s="6">
+        <v>0.64545454545454561</v>
+      </c>
+      <c r="N127" s="6">
+        <v>3.3909090909090907</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>45455</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>134</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L128" t="s">
+        <v>137</v>
+      </c>
+      <c r="M128" s="6">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N128" s="6">
+        <v>1.4200000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L129" t="s">
+        <v>140</v>
+      </c>
+      <c r="M129" s="6">
+        <v>0.23076923076923081</v>
+      </c>
+      <c r="N129" s="6">
+        <v>1.9076923076923078</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>139</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L130" t="s">
+        <v>142</v>
+      </c>
+      <c r="M130" s="6">
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="N130" s="6">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>144</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L131" t="s">
+        <v>145</v>
+      </c>
+      <c r="M131" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="N131" s="6">
+        <v>2.4384615384615387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B132" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" t="s">
+        <v>146</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>147</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L132" t="s">
+        <v>148</v>
+      </c>
+      <c r="M132" s="6">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="N132" s="6">
+        <v>1.6300000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>45456</v>
+      </c>
+      <c r="B133" t="s">
+        <v>256</v>
+      </c>
+      <c r="C133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>150</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>41</v>
+      </c>
+      <c r="H133" t="s">
+        <v>42</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L133" t="s">
+        <v>151</v>
+      </c>
+      <c r="M133" s="6">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="N133" s="6">
+        <v>2.7166666666666668</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B134" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" t="s">
+        <v>152</v>
+      </c>
+      <c r="D134">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>154</v>
+      </c>
+      <c r="H134" t="s">
+        <v>155</v>
+      </c>
+      <c r="I134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L134" t="s">
+        <v>157</v>
+      </c>
+      <c r="M134" s="6">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="N134" s="6">
+        <v>3.0249999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>153</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>154</v>
+      </c>
+      <c r="H135" t="s">
+        <v>155</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L135" t="s">
+        <v>157</v>
+      </c>
+      <c r="M135" s="6">
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="N135" s="6">
+        <v>2.7888888888888888</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C136" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>160</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s">
+        <v>42</v>
+      </c>
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L136" t="s">
+        <v>161</v>
+      </c>
+      <c r="M136" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N136" s="6">
+        <v>1.7090909090909092</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>162</v>
+      </c>
+      <c r="F137" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L137" t="s">
+        <v>163</v>
+      </c>
+      <c r="M137" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N137" s="6">
+        <v>2.8181818181818183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>162</v>
+      </c>
+      <c r="F138" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>25</v>
+      </c>
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" t="s">
+        <v>20</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L138" t="s">
+        <v>164</v>
+      </c>
+      <c r="M138" s="6">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="N138" s="6">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>166</v>
+      </c>
+      <c r="F139" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" t="s">
+        <v>42</v>
+      </c>
+      <c r="I139" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L139" t="s">
+        <v>167</v>
+      </c>
+      <c r="M139" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="N139" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L140" t="s">
+        <v>170</v>
+      </c>
+      <c r="M140" s="6">
+        <v>0.13076923076923078</v>
+      </c>
+      <c r="N140" s="6">
+        <v>0.92307692307692291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B141" t="s">
+        <v>256</v>
+      </c>
+      <c r="C141" t="s">
+        <v>171</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L141" t="s">
+        <v>172</v>
+      </c>
+      <c r="M141" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N141" s="6">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>174</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L142" t="s">
+        <v>175</v>
+      </c>
+      <c r="M142" s="6">
+        <v>0.57692307692307676</v>
+      </c>
+      <c r="N142" s="6">
+        <v>3.5076923076923077</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B143" t="s">
+        <v>256</v>
+      </c>
+      <c r="C143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>176</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L143" t="s">
+        <v>177</v>
+      </c>
+      <c r="M143" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="N143" s="6">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B144" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>144</v>
+      </c>
+      <c r="F144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>65</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L144" t="s">
+        <v>179</v>
+      </c>
+      <c r="M144" s="6">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="N144" s="6">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>181</v>
+      </c>
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L145" t="s">
+        <v>182</v>
+      </c>
+      <c r="M145" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N145" s="6">
+        <v>1.4666666666666668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B146" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>181</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>25</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L146" t="s">
+        <v>184</v>
+      </c>
+      <c r="M146" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="N146" s="6">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B147" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" t="s">
+        <v>185</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>181</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I147" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L147" t="s">
+        <v>186</v>
+      </c>
+      <c r="M147" s="6">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="N147" s="6">
+        <v>3.4624999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B148" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>188</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>32</v>
+      </c>
+      <c r="H148" t="s">
+        <v>122</v>
+      </c>
+      <c r="I148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J148" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L148" t="s">
+        <v>123</v>
+      </c>
+      <c r="M148" s="6">
+        <v>0.54285714285714293</v>
+      </c>
+      <c r="N148" s="6">
+        <v>3.3714285714285714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B149" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>189</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149" t="s">
+        <v>42</v>
+      </c>
+      <c r="I149" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L149" t="s">
+        <v>190</v>
+      </c>
+      <c r="M149" s="6">
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="N149" s="6">
+        <v>0.97000000000000008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B150" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" t="s">
+        <v>191</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>189</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150" t="s">
+        <v>42</v>
+      </c>
+      <c r="I150" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L150" t="s">
+        <v>190</v>
+      </c>
+      <c r="M150" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N150" s="6">
+        <v>1.9222222222222218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>45463</v>
+      </c>
+      <c r="B151" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>193</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s">
+        <v>25</v>
+      </c>
+      <c r="I151" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" t="s">
+        <v>20</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L151" t="s">
+        <v>194</v>
+      </c>
+      <c r="M151" s="6">
+        <v>0.42222222222222228</v>
+      </c>
+      <c r="N151" s="6">
+        <v>3.2555555555555551</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>45463</v>
+      </c>
+      <c r="B152" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152" t="s">
+        <v>195</v>
+      </c>
+      <c r="D152">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>196</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>65</v>
+      </c>
+      <c r="H152" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L152" t="s">
+        <v>197</v>
+      </c>
+      <c r="M152" s="6">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="N152" s="6">
+        <v>3.5529411764705885</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>45463</v>
+      </c>
+      <c r="B153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C153" t="s">
+        <v>198</v>
+      </c>
+      <c r="D153">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>199</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>41</v>
+      </c>
+      <c r="H153" t="s">
+        <v>42</v>
+      </c>
+      <c r="I153" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" t="s">
+        <v>20</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L153" t="s">
+        <v>200</v>
+      </c>
+      <c r="M153" s="6">
+        <v>0.36153846153846148</v>
+      </c>
+      <c r="N153" s="6">
+        <v>2.1923076923076916</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>45466</v>
+      </c>
+      <c r="B154" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" t="s">
+        <v>201</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>122</v>
+      </c>
+      <c r="H154" t="s">
+        <v>203</v>
+      </c>
+      <c r="I154" t="s">
+        <v>19</v>
+      </c>
+      <c r="J154" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L154" t="s">
+        <v>204</v>
+      </c>
+      <c r="M154" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="N154" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B155" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" t="s">
+        <v>205</v>
+      </c>
+      <c r="D155">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>206</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" t="s">
+        <v>42</v>
+      </c>
+      <c r="I155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L155" t="s">
+        <v>207</v>
+      </c>
+      <c r="M155" s="6">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="N155" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B156" t="s">
+        <v>256</v>
+      </c>
+      <c r="C156" t="s">
+        <v>208</v>
+      </c>
+      <c r="D156">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>209</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>25</v>
+      </c>
+      <c r="I156" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L156" t="s">
+        <v>210</v>
+      </c>
+      <c r="M156" s="6">
+        <v>0.19333333333333338</v>
+      </c>
+      <c r="N156" s="6">
+        <v>1.3533333333333333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B157" t="s">
+        <v>256</v>
+      </c>
+      <c r="C157" t="s">
+        <v>77</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>209</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
+        <v>25</v>
+      </c>
+      <c r="I157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L157" t="s">
+        <v>211</v>
+      </c>
+      <c r="M157" s="6">
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="N157" s="6">
+        <v>0.85714285714285732</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B158" t="s">
+        <v>256</v>
+      </c>
+      <c r="C158" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>213</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>122</v>
+      </c>
+      <c r="H158" t="s">
+        <v>203</v>
+      </c>
+      <c r="I158" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L158" t="s">
+        <v>214</v>
+      </c>
+      <c r="M158" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N158" s="6">
+        <v>1.0857142857142859</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B159" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" t="s">
+        <v>215</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>213</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>122</v>
+      </c>
+      <c r="H159" t="s">
+        <v>203</v>
+      </c>
+      <c r="I159" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L159" t="s">
+        <v>216</v>
+      </c>
+      <c r="M159" s="6">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N159" s="6">
+        <v>1.2333333333333334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B160" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" t="s">
+        <v>217</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>218</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L160" t="s">
+        <v>219</v>
+      </c>
+      <c r="M160" s="6">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="N160" s="6">
+        <v>2.6727272727272728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B161" t="s">
+        <v>256</v>
+      </c>
+      <c r="C161" t="s">
+        <v>220</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>218</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>25</v>
+      </c>
+      <c r="I161" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L161" t="s">
+        <v>221</v>
+      </c>
+      <c r="M161" s="6">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="N161" s="6">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B162" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" t="s">
+        <v>222</v>
+      </c>
+      <c r="D162">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>223</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L162" t="s">
+        <v>224</v>
+      </c>
+      <c r="M162" s="6">
+        <v>0.56428571428571439</v>
+      </c>
+      <c r="N162" s="6">
+        <v>3.4428571428571417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B163" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>226</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" t="s">
+        <v>20</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L163" t="s">
+        <v>76</v>
+      </c>
+      <c r="M163" s="6">
+        <v>0.81111111111111123</v>
+      </c>
+      <c r="N163" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B164" t="s">
+        <v>256</v>
+      </c>
+      <c r="C164" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>228</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>122</v>
+      </c>
+      <c r="H164" t="s">
+        <v>203</v>
+      </c>
+      <c r="I164" t="s">
+        <v>19</v>
+      </c>
+      <c r="J164" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L164" t="s">
+        <v>229</v>
+      </c>
+      <c r="M164" s="6">
+        <v>1.0916666666666666</v>
+      </c>
+      <c r="N164" s="6">
+        <v>5.5666666666666655</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>45469</v>
+      </c>
+      <c r="B165" t="s">
+        <v>256</v>
+      </c>
+      <c r="C165" t="s">
+        <v>230</v>
+      </c>
+      <c r="D165">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>231</v>
+      </c>
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>122</v>
+      </c>
+      <c r="H165" t="s">
+        <v>203</v>
+      </c>
+      <c r="I165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165" t="s">
+        <v>20</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L165" t="s">
+        <v>232</v>
+      </c>
+      <c r="M165" s="6">
+        <v>0.21428571428571425</v>
+      </c>
+      <c r="N165" s="6">
+        <v>1.4071428571428568</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>45469</v>
+      </c>
+      <c r="B166" t="s">
+        <v>256</v>
+      </c>
+      <c r="C166" t="s">
+        <v>233</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>231</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>122</v>
+      </c>
+      <c r="H166" t="s">
+        <v>203</v>
+      </c>
+      <c r="I166" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L166" t="s">
+        <v>234</v>
+      </c>
+      <c r="M166" s="6">
+        <v>0.22857142857142859</v>
+      </c>
+      <c r="N166" s="6">
+        <v>1.5428571428571429</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>45469</v>
+      </c>
+      <c r="B167" t="s">
+        <v>256</v>
+      </c>
+      <c r="C167" t="s">
+        <v>235</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>41</v>
+      </c>
+      <c r="H167" t="s">
+        <v>54</v>
+      </c>
+      <c r="I167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" t="s">
+        <v>20</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L167" t="s">
+        <v>237</v>
+      </c>
+      <c r="M167" s="6">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="N167" s="6">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>45469</v>
+      </c>
+      <c r="B168" t="s">
+        <v>256</v>
+      </c>
+      <c r="C168" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>239</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s">
+        <v>25</v>
+      </c>
+      <c r="I168" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" t="s">
+        <v>20</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L168" t="s">
+        <v>240</v>
+      </c>
+      <c r="M168" s="6">
+        <v>0.61818181818181817</v>
+      </c>
+      <c r="N168" s="6">
+        <v>3.4363636363636361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>45469</v>
+      </c>
+      <c r="B169" t="s">
+        <v>256</v>
+      </c>
+      <c r="C169" t="s">
+        <v>136</v>
+      </c>
+      <c r="D169">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>241</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>25</v>
+      </c>
+      <c r="I169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L169" t="s">
+        <v>242</v>
+      </c>
+      <c r="M169" s="6">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="N169" s="6">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>45470</v>
+      </c>
+      <c r="B170" t="s">
+        <v>256</v>
+      </c>
+      <c r="C170" t="s">
+        <v>243</v>
+      </c>
+      <c r="D170">
+        <v>24</v>
+      </c>
+      <c r="E170" t="s">
+        <v>244</v>
+      </c>
+      <c r="F170" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>122</v>
+      </c>
+      <c r="H170" t="s">
+        <v>203</v>
+      </c>
+      <c r="I170" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L170" t="s">
+        <v>245</v>
+      </c>
+      <c r="M170" s="6">
+        <v>0.15416666666666673</v>
+      </c>
+      <c r="N170" s="6">
+        <v>1.1750000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>45470</v>
+      </c>
+      <c r="B171" t="s">
+        <v>256</v>
+      </c>
+      <c r="C171" t="s">
+        <v>246</v>
+      </c>
+      <c r="D171">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>247</v>
+      </c>
+      <c r="F171" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>32</v>
+      </c>
+      <c r="H171" t="s">
+        <v>90</v>
+      </c>
+      <c r="I171" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L171" t="s">
+        <v>248</v>
+      </c>
+      <c r="M171" s="6">
+        <v>0.20833333333333329</v>
+      </c>
+      <c r="N171" s="6">
+        <v>1.3833333333333337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>45470</v>
+      </c>
+      <c r="B172" t="s">
+        <v>256</v>
+      </c>
+      <c r="C172" t="s">
+        <v>249</v>
+      </c>
+      <c r="D172">
+        <v>23</v>
+      </c>
+      <c r="E172" t="s">
+        <v>250</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L172" t="s">
+        <v>251</v>
+      </c>
+      <c r="M172" s="6">
+        <v>0.1695652173913044</v>
+      </c>
+      <c r="N172" s="6">
+        <v>0.88260869565217381</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>45473</v>
+      </c>
+      <c r="B173" t="s">
+        <v>256</v>
+      </c>
+      <c r="C173" t="s">
+        <v>252</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>253</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>41</v>
+      </c>
+      <c r="H173" t="s">
+        <v>42</v>
+      </c>
+      <c r="I173" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" t="s">
+        <v>254</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L173" t="s">
+        <v>255</v>
+      </c>
+      <c r="M173" s="6">
+        <v>0.41111111111111104</v>
+      </c>
+      <c r="N173" s="6">
+        <v>2.7111111111111104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="8">
+        <v>45445</v>
+      </c>
+      <c r="B174" t="s">
+        <v>257</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D174" s="10">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>258</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L174" t="s">
+        <v>260</v>
+      </c>
+      <c r="M174" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="N174" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="8">
+        <v>45446</v>
+      </c>
+      <c r="B175" t="s">
+        <v>257</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D175" s="10">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
+        <v>262</v>
+      </c>
+      <c r="G175" t="s">
+        <v>41</v>
+      </c>
+      <c r="H175" t="s">
+        <v>263</v>
+      </c>
+      <c r="I175" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175" t="s">
+        <v>43</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L175" t="s">
+        <v>45</v>
+      </c>
+      <c r="M175" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="N175" s="11">
+        <v>1.6800000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="8">
+        <v>45447</v>
+      </c>
+      <c r="B176" t="s">
+        <v>257</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" s="10">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>266</v>
+      </c>
+      <c r="G176" t="s">
+        <v>41</v>
+      </c>
+      <c r="H176" t="s">
+        <v>263</v>
+      </c>
+      <c r="I176" t="s">
+        <v>19</v>
+      </c>
+      <c r="J176" t="s">
+        <v>20</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L176" t="s">
+        <v>268</v>
+      </c>
+      <c r="M176" s="11">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="N176" s="11">
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="8">
+        <v>45448</v>
+      </c>
+      <c r="B177" t="s">
+        <v>257</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D177" s="10">
+        <v>9</v>
+      </c>
+      <c r="E177" t="s">
+        <v>270</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" t="s">
+        <v>20</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L177" t="s">
+        <v>260</v>
+      </c>
+      <c r="M177" s="11">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N177" s="11">
+        <v>1.7666666666666666</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="8">
+        <v>45448</v>
+      </c>
+      <c r="B178" t="s">
+        <v>257</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D178" s="10">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>273</v>
+      </c>
+      <c r="G178" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L178" t="s">
+        <v>274</v>
+      </c>
+      <c r="M178" s="11">
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="N178" s="11">
+        <v>1.9249999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="8">
+        <v>45449</v>
+      </c>
+      <c r="B179" t="s">
+        <v>257</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D179" s="10">
+        <v>19</v>
+      </c>
+      <c r="E179" t="s">
+        <v>276</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" t="s">
+        <v>20</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L179" t="s">
+        <v>277</v>
+      </c>
+      <c r="M179" s="11">
+        <v>0.21578947368421056</v>
+      </c>
+      <c r="N179" s="11">
+        <v>1.4105263157894736</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="8">
+        <v>45454</v>
+      </c>
+      <c r="B180" t="s">
+        <v>257</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D180" s="10">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>279</v>
+      </c>
+      <c r="G180" t="s">
+        <v>90</v>
+      </c>
+      <c r="H180" t="s">
+        <v>126</v>
+      </c>
+      <c r="I180" t="s">
+        <v>19</v>
+      </c>
+      <c r="J180" t="s">
+        <v>20</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L180" t="s">
+        <v>280</v>
+      </c>
+      <c r="M180" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="N180" s="11">
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="8">
+        <v>45454</v>
+      </c>
+      <c r="B181" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D181" s="10">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>282</v>
+      </c>
+      <c r="G181" t="s">
+        <v>41</v>
+      </c>
+      <c r="H181" t="s">
+        <v>263</v>
+      </c>
+      <c r="I181" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181" t="s">
+        <v>283</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L181" t="s">
+        <v>284</v>
+      </c>
+      <c r="M181" s="11">
+        <v>0.28999999999999992</v>
+      </c>
+      <c r="N181" s="11">
+        <v>1.8400000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="8">
+        <v>45455</v>
+      </c>
+      <c r="B182" t="s">
+        <v>257</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D182" s="10">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>286</v>
+      </c>
+      <c r="G182" t="s">
+        <v>90</v>
+      </c>
+      <c r="H182" t="s">
+        <v>126</v>
+      </c>
+      <c r="I182" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L182" t="s">
+        <v>287</v>
+      </c>
+      <c r="M182" s="11">
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="N182" s="11">
+        <v>1.7875000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="8">
+        <v>45455</v>
+      </c>
+      <c r="B183" t="s">
+        <v>257</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D183" s="10">
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
+        <v>289</v>
+      </c>
+      <c r="G183" t="s">
+        <v>41</v>
+      </c>
+      <c r="H183" t="s">
+        <v>263</v>
+      </c>
+      <c r="I183" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" t="s">
+        <v>290</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L183" t="s">
+        <v>291</v>
+      </c>
+      <c r="M183" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="N183" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="8">
+        <v>45456</v>
+      </c>
+      <c r="B184" t="s">
+        <v>257</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D184" s="10">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>293</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H184" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L184" t="s">
+        <v>179</v>
+      </c>
+      <c r="M184" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="N184" s="11">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="8">
+        <v>45459</v>
+      </c>
+      <c r="B185" t="s">
+        <v>257</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D185" s="10">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>295</v>
+      </c>
+      <c r="G185" t="s">
+        <v>41</v>
+      </c>
+      <c r="H185" t="s">
+        <v>263</v>
+      </c>
+      <c r="I185" t="s">
+        <v>19</v>
+      </c>
+      <c r="J185" t="s">
+        <v>20</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L185" t="s">
+        <v>297</v>
+      </c>
+      <c r="M185" s="11">
+        <v>0.18888888888888886</v>
+      </c>
+      <c r="N185" s="11">
+        <v>1.2444444444444445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="8">
+        <v>45461</v>
+      </c>
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D186" s="10">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>299</v>
+      </c>
+      <c r="G186" t="s">
+        <v>300</v>
+      </c>
+      <c r="H186" t="s">
+        <v>301</v>
+      </c>
+      <c r="I186" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L186" t="s">
+        <v>302</v>
+      </c>
+      <c r="M186" s="11">
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="N186" s="11">
+        <v>1.4555555555555557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="8">
+        <v>45462</v>
+      </c>
+      <c r="B187" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D187" s="10">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>304</v>
+      </c>
+      <c r="G187" t="s">
+        <v>65</v>
+      </c>
+      <c r="H187" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L187" t="s">
+        <v>305</v>
+      </c>
+      <c r="M187" s="11">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N187" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="8">
+        <v>45467</v>
+      </c>
+      <c r="B188" t="s">
+        <v>257</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D188" s="10">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
+        <v>307</v>
+      </c>
+      <c r="G188" t="s">
+        <v>308</v>
+      </c>
+      <c r="H188" t="s">
+        <v>309</v>
+      </c>
+      <c r="I188" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" t="s">
+        <v>310</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L188" t="s">
+        <v>311</v>
+      </c>
+      <c r="M188" s="11">
+        <v>0.12727272727272729</v>
+      </c>
+      <c r="N188" s="11">
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="8">
+        <v>45467</v>
+      </c>
+      <c r="B189" t="s">
+        <v>257</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D189" s="10">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>313</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" t="s">
+        <v>20</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L189" t="s">
+        <v>314</v>
+      </c>
+      <c r="M189" s="11">
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="N189" s="11">
+        <v>1.3555555555555554</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="8">
+        <v>45468</v>
+      </c>
+      <c r="B190" t="s">
+        <v>257</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D190" s="10">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>316</v>
+      </c>
+      <c r="G190" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" t="s">
+        <v>263</v>
+      </c>
+      <c r="I190" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L190" t="s">
+        <v>318</v>
+      </c>
+      <c r="M190" s="11">
+        <v>0.21250000000000008</v>
+      </c>
+      <c r="N190" s="11">
+        <v>1.9124999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="8">
+        <v>45469</v>
+      </c>
+      <c r="B191" t="s">
+        <v>257</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D191" s="10">
+        <v>9</v>
+      </c>
+      <c r="E191" t="s">
+        <v>319</v>
+      </c>
+      <c r="G191" t="s">
+        <v>41</v>
+      </c>
+      <c r="H191" t="s">
+        <v>263</v>
+      </c>
+      <c r="I191" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" t="s">
+        <v>320</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L191" t="s">
+        <v>322</v>
+      </c>
+      <c r="M191" s="11">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N191" s="11">
+        <v>2.5666666666666664</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="8">
+        <v>45469</v>
+      </c>
+      <c r="B192" t="s">
+        <v>257</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D192" s="10">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>324</v>
+      </c>
+      <c r="G192" t="s">
+        <v>122</v>
+      </c>
+      <c r="H192" t="s">
+        <v>203</v>
+      </c>
+      <c r="I192" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L192" t="s">
+        <v>325</v>
+      </c>
+      <c r="M192" s="11">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N192" s="11">
+        <v>0.89166666666666672</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="8">
+        <v>45473</v>
+      </c>
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D193" s="10">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>327</v>
+      </c>
+      <c r="G193" t="s">
+        <v>41</v>
+      </c>
+      <c r="H193" t="s">
+        <v>263</v>
+      </c>
+      <c r="I193" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L193" t="s">
+        <v>329</v>
+      </c>
+      <c r="M193" s="11">
+        <v>0.21249999999999997</v>
+      </c>
+      <c r="N193" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B194" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" t="s">
+        <v>331</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>332</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" t="s">
+        <v>333</v>
+      </c>
+      <c r="J194" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L194" t="s">
+        <v>335</v>
+      </c>
+      <c r="M194" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N194" s="6">
+        <v>1.4199999999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B195" t="s">
+        <v>330</v>
+      </c>
+      <c r="C195" t="s">
+        <v>336</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>337</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" t="s">
+        <v>18</v>
+      </c>
+      <c r="I195" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L195" t="s">
+        <v>338</v>
+      </c>
+      <c r="M195" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N195" s="6">
+        <v>1.3142857142857143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B196" t="s">
+        <v>330</v>
+      </c>
+      <c r="C196" t="s">
+        <v>339</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>337</v>
+      </c>
+      <c r="G196" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" t="s">
+        <v>20</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L196" t="s">
+        <v>338</v>
+      </c>
+      <c r="M196" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N196" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B197" t="s">
+        <v>330</v>
+      </c>
+      <c r="C197" t="s">
+        <v>340</v>
+      </c>
+      <c r="D197">
+        <v>11</v>
+      </c>
+      <c r="E197" t="s">
+        <v>341</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" t="s">
+        <v>18</v>
+      </c>
+      <c r="I197" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L197" t="s">
+        <v>342</v>
+      </c>
+      <c r="M197" s="6">
+        <v>0</v>
+      </c>
+      <c r="N197" s="6">
+        <v>0.21818181818181823</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B198" t="s">
+        <v>330</v>
+      </c>
+      <c r="C198" t="s">
+        <v>343</v>
+      </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>344</v>
+      </c>
+      <c r="G198" t="s">
+        <v>17</v>
+      </c>
+      <c r="H198" t="s">
+        <v>18</v>
+      </c>
+      <c r="I198" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L198" t="s">
+        <v>346</v>
+      </c>
+      <c r="M198" s="6">
+        <v>0.24285714285714283</v>
+      </c>
+      <c r="N198" s="6">
+        <v>2.6571428571428575</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B199" t="s">
+        <v>330</v>
+      </c>
+      <c r="C199" t="s">
+        <v>347</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>344</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" t="s">
+        <v>20</v>
+      </c>
+      <c r="K199" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L199" t="s">
+        <v>348</v>
+      </c>
+      <c r="M199" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N199" s="6">
+        <v>1.9500000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B200" t="s">
+        <v>330</v>
+      </c>
+      <c r="C200" t="s">
+        <v>339</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
+        <v>344</v>
+      </c>
+      <c r="G200" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" t="s">
+        <v>20</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L200" t="s">
+        <v>349</v>
+      </c>
+      <c r="M200" s="6">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="N200" s="6">
+        <v>2.2625000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B201" t="s">
+        <v>330</v>
+      </c>
+      <c r="C201" t="s">
+        <v>350</v>
+      </c>
+      <c r="D201">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>351</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" t="s">
+        <v>20</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L201" t="s">
+        <v>353</v>
+      </c>
+      <c r="M201" s="6">
+        <v>0</v>
+      </c>
+      <c r="N201" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B202" t="s">
+        <v>330</v>
+      </c>
+      <c r="C202" t="s">
+        <v>354</v>
+      </c>
+      <c r="D202">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>351</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L202" t="s">
+        <v>353</v>
+      </c>
+      <c r="M202" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="N202" s="6">
+        <v>1.1249999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B203" t="s">
+        <v>330</v>
+      </c>
+      <c r="C203" t="s">
+        <v>355</v>
+      </c>
+      <c r="D203">
+        <v>11</v>
+      </c>
+      <c r="E203" t="s">
+        <v>356</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" t="s">
+        <v>20</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L203" t="s">
+        <v>357</v>
+      </c>
+      <c r="M203" s="6">
+        <v>0</v>
+      </c>
+      <c r="N203" s="6">
+        <v>0.30909090909090903</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>45448</v>
+      </c>
+      <c r="B204" t="s">
+        <v>330</v>
+      </c>
+      <c r="C204" t="s">
+        <v>358</v>
+      </c>
+      <c r="D204">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
+        <v>356</v>
+      </c>
+      <c r="G204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H204" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204" t="s">
+        <v>20</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L204" t="s">
+        <v>357</v>
+      </c>
+      <c r="M204" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N204" s="6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B205" t="s">
+        <v>330</v>
+      </c>
+      <c r="C205" t="s">
+        <v>359</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>360</v>
+      </c>
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
+      <c r="H205" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L205" t="s">
+        <v>362</v>
+      </c>
+      <c r="M205" s="6">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="N205" s="6">
+        <v>1.5375000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>45449</v>
+      </c>
+      <c r="B206" t="s">
+        <v>330</v>
+      </c>
+      <c r="C206" t="s">
+        <v>363</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>360</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
+      <c r="H206" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L206" t="s">
+        <v>362</v>
+      </c>
+      <c r="M206" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N206" s="6">
+        <v>1.3714285714285714</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B207" t="s">
+        <v>330</v>
+      </c>
+      <c r="C207" t="s">
+        <v>364</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>365</v>
+      </c>
+      <c r="G207" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207" t="s">
+        <v>54</v>
+      </c>
+      <c r="I207" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L207" t="s">
+        <v>367</v>
+      </c>
+      <c r="M207" s="6">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="N207" s="6">
+        <v>2.3166666666666664</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B208" t="s">
+        <v>330</v>
+      </c>
+      <c r="C208" t="s">
+        <v>368</v>
+      </c>
+      <c r="D208">
+        <v>6</v>
+      </c>
+      <c r="E208" t="s">
+        <v>365</v>
+      </c>
+      <c r="G208" t="s">
+        <v>41</v>
+      </c>
+      <c r="H208" t="s">
+        <v>54</v>
+      </c>
+      <c r="I208" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" t="s">
+        <v>20</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L208" t="s">
+        <v>367</v>
+      </c>
+      <c r="M208" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N208" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>45460</v>
+      </c>
+      <c r="B209" t="s">
+        <v>330</v>
+      </c>
+      <c r="C209" t="s">
+        <v>369</v>
+      </c>
+      <c r="D209">
+        <v>11</v>
+      </c>
+      <c r="E209" t="s">
+        <v>370</v>
+      </c>
+      <c r="G209" t="s">
+        <v>300</v>
+      </c>
+      <c r="H209" t="s">
+        <v>301</v>
+      </c>
+      <c r="I209" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L209" t="s">
+        <v>371</v>
+      </c>
+      <c r="M209" s="6">
+        <v>0.47272727272727283</v>
+      </c>
+      <c r="N209" s="6">
+        <v>4.3454545454545448</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B210" t="s">
+        <v>330</v>
+      </c>
+      <c r="C210" t="s">
+        <v>372</v>
+      </c>
+      <c r="D210">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>373</v>
+      </c>
+      <c r="G210" t="s">
+        <v>300</v>
+      </c>
+      <c r="H210" t="s">
+        <v>301</v>
+      </c>
+      <c r="I210" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L210" t="s">
+        <v>374</v>
+      </c>
+      <c r="M210" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N210" s="6">
+        <v>1.7899999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B211" t="s">
+        <v>330</v>
+      </c>
+      <c r="C211" t="s">
+        <v>375</v>
+      </c>
+      <c r="D211">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>376</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" t="s">
+        <v>20</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L211" t="s">
+        <v>377</v>
+      </c>
+      <c r="M211" s="6">
+        <v>0.22307692307692314</v>
+      </c>
+      <c r="N211" s="6">
+        <v>2.6769230769230763</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B212" t="s">
+        <v>330</v>
+      </c>
+      <c r="C212" t="s">
+        <v>378</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212" t="s">
+        <v>376</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" t="s">
+        <v>19</v>
+      </c>
+      <c r="J212" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L212" t="s">
+        <v>377</v>
+      </c>
+      <c r="M212" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N212" s="6">
+        <v>1.7428571428571427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B213" t="s">
+        <v>330</v>
+      </c>
+      <c r="C213" t="s">
+        <v>379</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>380</v>
+      </c>
+      <c r="G213" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L213" t="s">
+        <v>381</v>
+      </c>
+      <c r="M213" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N213" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>45462</v>
+      </c>
+      <c r="B214" t="s">
+        <v>330</v>
+      </c>
+      <c r="C214" t="s">
+        <v>382</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>380</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" t="s">
+        <v>20</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L214" t="s">
+        <v>381</v>
+      </c>
+      <c r="M214" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N214" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B215" t="s">
+        <v>330</v>
+      </c>
+      <c r="C215" t="s">
+        <v>343</v>
+      </c>
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215" t="s">
+        <v>383</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" t="s">
+        <v>20</v>
+      </c>
+      <c r="K215" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L215" t="s">
+        <v>384</v>
+      </c>
+      <c r="M215" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N215" s="6">
+        <v>2.371428571428571</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B216" t="s">
+        <v>330</v>
+      </c>
+      <c r="C216" t="s">
+        <v>385</v>
+      </c>
+      <c r="D216">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>383</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" t="s">
+        <v>18</v>
+      </c>
+      <c r="I216" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" t="s">
+        <v>20</v>
+      </c>
+      <c r="K216" t="s">
+        <v>334</v>
+      </c>
+      <c r="L216" t="s">
+        <v>384</v>
+      </c>
+      <c r="M216" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="N216" s="6">
+        <v>1.9875</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B217" t="s">
+        <v>330</v>
+      </c>
+      <c r="C217" t="s">
+        <v>386</v>
+      </c>
+      <c r="D217">
+        <v>13</v>
+      </c>
+      <c r="E217" t="s">
+        <v>387</v>
+      </c>
+      <c r="G217" t="s">
+        <v>300</v>
+      </c>
+      <c r="H217" t="s">
+        <v>301</v>
+      </c>
+      <c r="I217" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" t="s">
+        <v>388</v>
+      </c>
+      <c r="L217" t="s">
+        <v>389</v>
+      </c>
+      <c r="M217" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N217" s="6">
+        <v>0.91538461538461513</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B218" t="s">
+        <v>330</v>
+      </c>
+      <c r="C218" t="s">
+        <v>390</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>391</v>
+      </c>
+      <c r="G218" t="s">
+        <v>300</v>
+      </c>
+      <c r="H218" t="s">
+        <v>301</v>
+      </c>
+      <c r="I218" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" t="s">
+        <v>20</v>
+      </c>
+      <c r="K218" t="s">
+        <v>361</v>
+      </c>
+      <c r="L218" t="s">
+        <v>392</v>
+      </c>
+      <c r="M218" s="6">
+        <v>0</v>
+      </c>
+      <c r="N218" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="s">
+        <v>330</v>
+      </c>
+      <c r="C219" t="s">
+        <v>393</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
+        <v>391</v>
+      </c>
+      <c r="G219" t="s">
+        <v>300</v>
+      </c>
+      <c r="H219" t="s">
+        <v>301</v>
+      </c>
+      <c r="I219" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" t="s">
+        <v>20</v>
+      </c>
+      <c r="K219" t="s">
+        <v>361</v>
+      </c>
+      <c r="L219" t="s">
+        <v>392</v>
+      </c>
+      <c r="M219" s="6">
+        <v>0</v>
+      </c>
+      <c r="N219" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B220" t="s">
+        <v>330</v>
+      </c>
+      <c r="C220" t="s">
+        <v>394</v>
+      </c>
+      <c r="D220">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>395</v>
+      </c>
+      <c r="G220" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" t="s">
+        <v>19</v>
+      </c>
+      <c r="J220" t="s">
+        <v>20</v>
+      </c>
+      <c r="K220" t="s">
+        <v>345</v>
+      </c>
+      <c r="L220" t="s">
+        <v>396</v>
+      </c>
+      <c r="M220" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N220" s="6">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B221" t="s">
+        <v>330</v>
+      </c>
+      <c r="C221" t="s">
+        <v>363</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+      <c r="E221" t="s">
+        <v>395</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" t="s">
+        <v>18</v>
+      </c>
+      <c r="I221" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221" t="s">
+        <v>20</v>
+      </c>
+      <c r="K221" t="s">
+        <v>345</v>
+      </c>
+      <c r="L221" t="s">
+        <v>396</v>
+      </c>
+      <c r="M221" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N221" s="6">
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B222" t="s">
+        <v>330</v>
+      </c>
+      <c r="C222" t="s">
+        <v>397</v>
+      </c>
+      <c r="D222">
+        <v>7</v>
+      </c>
+      <c r="E222" t="s">
+        <v>398</v>
+      </c>
+      <c r="G222" t="s">
+        <v>122</v>
+      </c>
+      <c r="H222" t="s">
+        <v>203</v>
+      </c>
+      <c r="I222" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222" t="s">
+        <v>20</v>
+      </c>
+      <c r="K222" t="s">
+        <v>399</v>
+      </c>
+      <c r="L222" t="s">
+        <v>400</v>
+      </c>
+      <c r="M222" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N222" s="6">
+        <v>2.2714285714285718</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B223" t="s">
+        <v>330</v>
+      </c>
+      <c r="C223" t="s">
+        <v>347</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>398</v>
+      </c>
+      <c r="G223" t="s">
+        <v>122</v>
+      </c>
+      <c r="H223" t="s">
+        <v>203</v>
+      </c>
+      <c r="I223" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" t="s">
+        <v>20</v>
+      </c>
+      <c r="K223" t="s">
+        <v>399</v>
+      </c>
+      <c r="L223" t="s">
+        <v>400</v>
+      </c>
+      <c r="M223" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N223" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B224" t="s">
+        <v>330</v>
+      </c>
+      <c r="C224" t="s">
+        <v>401</v>
+      </c>
+      <c r="D224">
+        <v>10</v>
+      </c>
+      <c r="E224" t="s">
+        <v>398</v>
+      </c>
+      <c r="G224" t="s">
+        <v>122</v>
+      </c>
+      <c r="H224" t="s">
+        <v>203</v>
+      </c>
+      <c r="I224" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224" t="s">
+        <v>20</v>
+      </c>
+      <c r="K224" t="s">
+        <v>399</v>
+      </c>
+      <c r="L224" t="s">
+        <v>400</v>
+      </c>
+      <c r="M224" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N224" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B225" t="s">
+        <v>330</v>
+      </c>
+      <c r="C225" t="s">
+        <v>402</v>
+      </c>
+      <c r="D225">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>403</v>
+      </c>
+      <c r="G225" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" t="s">
+        <v>399</v>
+      </c>
+      <c r="L225" t="s">
+        <v>404</v>
+      </c>
+      <c r="M225" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N225" s="6">
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B226" t="s">
+        <v>330</v>
+      </c>
+      <c r="C226" t="s">
+        <v>405</v>
+      </c>
+      <c r="D226">
+        <v>10</v>
+      </c>
+      <c r="E226" t="s">
+        <v>403</v>
+      </c>
+      <c r="G226" t="s">
+        <v>17</v>
+      </c>
+      <c r="H226" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" t="s">
+        <v>20</v>
+      </c>
+      <c r="K226" t="s">
+        <v>399</v>
+      </c>
+      <c r="L226" t="s">
+        <v>404</v>
+      </c>
+      <c r="M226" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N226" s="6">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>45475</v>
+      </c>
+      <c r="B227" t="s">
+        <v>330</v>
+      </c>
+      <c r="C227" t="s">
+        <v>406</v>
+      </c>
+      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>407</v>
+      </c>
+      <c r="G227" t="s">
+        <v>122</v>
+      </c>
+      <c r="H227" t="s">
+        <v>408</v>
+      </c>
+      <c r="I227" t="s">
+        <v>19</v>
+      </c>
+      <c r="J227" t="s">
+        <v>20</v>
+      </c>
+      <c r="K227" t="s">
+        <v>345</v>
+      </c>
+      <c r="L227" t="s">
+        <v>409</v>
+      </c>
+      <c r="M227" s="6">
+        <v>0.18888888888888886</v>
+      </c>
+      <c r="N227" s="6">
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>45475</v>
+      </c>
+      <c r="B228" t="s">
+        <v>330</v>
+      </c>
+      <c r="C228" t="s">
+        <v>410</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
+        <v>407</v>
+      </c>
+      <c r="G228" t="s">
+        <v>122</v>
+      </c>
+      <c r="H228" t="s">
+        <v>408</v>
+      </c>
+      <c r="I228" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" t="s">
+        <v>20</v>
+      </c>
+      <c r="K228" t="s">
+        <v>345</v>
+      </c>
+      <c r="L228" t="s">
+        <v>409</v>
+      </c>
+      <c r="M228" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="N228" s="6">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>45475</v>
+      </c>
+      <c r="B229" t="s">
+        <v>330</v>
+      </c>
+      <c r="C229" t="s">
+        <v>393</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>411</v>
+      </c>
+      <c r="G229" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" t="s">
+        <v>18</v>
+      </c>
+      <c r="I229" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" t="s">
+        <v>20</v>
+      </c>
+      <c r="K229" t="s">
+        <v>345</v>
+      </c>
+      <c r="L229" t="s">
+        <v>412</v>
+      </c>
+      <c r="M229" s="6">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="N229" s="6">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B230" t="s">
+        <v>330</v>
+      </c>
+      <c r="C230" t="s">
+        <v>413</v>
+      </c>
+      <c r="D230">
+        <v>11</v>
+      </c>
+      <c r="E230" t="s">
+        <v>414</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" t="s">
+        <v>20</v>
+      </c>
+      <c r="K230" t="s">
+        <v>415</v>
+      </c>
+      <c r="L230" t="s">
+        <v>416</v>
+      </c>
+      <c r="M230" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N230" s="6">
+        <v>0.91818181818181832</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B231" t="s">
+        <v>330</v>
+      </c>
+      <c r="C231" t="s">
+        <v>382</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s">
+        <v>414</v>
+      </c>
+      <c r="G231" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" t="s">
+        <v>18</v>
+      </c>
+      <c r="I231" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" t="s">
+        <v>20</v>
+      </c>
+      <c r="K231" t="s">
+        <v>415</v>
+      </c>
+      <c r="L231" t="s">
+        <v>416</v>
+      </c>
+      <c r="M231" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N231" s="6">
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B232" t="s">
+        <v>330</v>
+      </c>
+      <c r="C232" t="s">
+        <v>417</v>
+      </c>
+      <c r="D232">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>418</v>
+      </c>
+      <c r="G232" t="s">
+        <v>122</v>
+      </c>
+      <c r="H232" t="s">
+        <v>203</v>
+      </c>
+      <c r="I232" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" t="s">
+        <v>20</v>
+      </c>
+      <c r="K232" t="s">
+        <v>415</v>
+      </c>
+      <c r="L232" t="s">
+        <v>419</v>
+      </c>
+      <c r="M232" s="6">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="N232" s="6">
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B233" t="s">
+        <v>330</v>
+      </c>
+      <c r="C233" t="s">
+        <v>420</v>
+      </c>
+      <c r="D233">
+        <v>10</v>
+      </c>
+      <c r="E233" t="s">
+        <v>418</v>
+      </c>
+      <c r="G233" t="s">
+        <v>122</v>
+      </c>
+      <c r="H233" t="s">
+        <v>203</v>
+      </c>
+      <c r="I233" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" t="s">
+        <v>20</v>
+      </c>
+      <c r="K233" t="s">
+        <v>415</v>
+      </c>
+      <c r="L233" t="s">
+        <v>419</v>
+      </c>
+      <c r="M233" s="6">
+        <v>0.18999999999999997</v>
+      </c>
+      <c r="N233" s="6">
+        <v>1.3800000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B234" t="s">
+        <v>330</v>
+      </c>
+      <c r="C234" t="s">
+        <v>421</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234" t="s">
+        <v>422</v>
+      </c>
+      <c r="G234" t="s">
+        <v>300</v>
+      </c>
+      <c r="H234" t="s">
+        <v>301</v>
+      </c>
+      <c r="I234" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" t="s">
+        <v>20</v>
+      </c>
+      <c r="K234" t="s">
+        <v>423</v>
+      </c>
+      <c r="L234" t="s">
+        <v>424</v>
+      </c>
+      <c r="M234" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="N234" s="6">
+        <v>2.3099999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B235" t="s">
+        <v>330</v>
+      </c>
+      <c r="C235" t="s">
+        <v>425</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235" t="s">
+        <v>426</v>
+      </c>
+      <c r="G235" t="s">
+        <v>122</v>
+      </c>
+      <c r="H235" t="s">
+        <v>408</v>
+      </c>
+      <c r="I235" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235" t="s">
+        <v>20</v>
+      </c>
+      <c r="K235" t="s">
+        <v>423</v>
+      </c>
+      <c r="L235" t="s">
+        <v>427</v>
+      </c>
+      <c r="M235" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N235" s="6">
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B236" t="s">
+        <v>330</v>
+      </c>
+      <c r="C236" t="s">
+        <v>428</v>
+      </c>
+      <c r="D236">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s">
+        <v>426</v>
+      </c>
+      <c r="G236" t="s">
+        <v>122</v>
+      </c>
+      <c r="H236" t="s">
+        <v>408</v>
+      </c>
+      <c r="I236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" t="s">
+        <v>20</v>
+      </c>
+      <c r="K236" t="s">
+        <v>423</v>
+      </c>
+      <c r="L236" t="s">
+        <v>427</v>
+      </c>
+      <c r="M236" s="6">
+        <v>0.18571428571428569</v>
+      </c>
+      <c r="N236" s="6">
+        <v>1.9571428571428571</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B237" t="s">
+        <v>330</v>
+      </c>
+      <c r="C237" t="s">
+        <v>429</v>
+      </c>
+      <c r="D237">
+        <v>6</v>
+      </c>
+      <c r="E237" t="s">
+        <v>426</v>
+      </c>
+      <c r="G237" t="s">
+        <v>122</v>
+      </c>
+      <c r="H237" t="s">
+        <v>408</v>
+      </c>
+      <c r="I237" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" t="s">
+        <v>423</v>
+      </c>
+      <c r="L237" t="s">
+        <v>427</v>
+      </c>
+      <c r="M237" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N237" s="6">
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>45481</v>
+      </c>
+      <c r="B238" t="s">
+        <v>330</v>
+      </c>
+      <c r="C238" t="s">
+        <v>430</v>
+      </c>
+      <c r="D238">
+        <v>6</v>
+      </c>
+      <c r="E238" t="s">
+        <v>431</v>
+      </c>
+      <c r="G238" t="s">
+        <v>41</v>
+      </c>
+      <c r="H238" t="s">
+        <v>54</v>
+      </c>
+      <c r="I238" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" t="s">
+        <v>432</v>
+      </c>
+      <c r="L238" t="s">
+        <v>433</v>
+      </c>
+      <c r="M238" s="6">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N238" s="6">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>45481</v>
+      </c>
+      <c r="B239" t="s">
+        <v>330</v>
+      </c>
+      <c r="C239" t="s">
+        <v>434</v>
+      </c>
+      <c r="D239">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>435</v>
+      </c>
+      <c r="G239" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" t="s">
+        <v>18</v>
+      </c>
+      <c r="I239" t="s">
+        <v>19</v>
+      </c>
+      <c r="J239" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" t="s">
+        <v>432</v>
+      </c>
+      <c r="L239" t="s">
+        <v>436</v>
+      </c>
+      <c r="M239" s="6">
+        <v>0</v>
+      </c>
+      <c r="N239" s="6">
+        <v>0.18333333333333335</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>45481</v>
+      </c>
+      <c r="B240" t="s">
+        <v>330</v>
+      </c>
+      <c r="C240" t="s">
+        <v>437</v>
+      </c>
+      <c r="D240">
+        <v>10</v>
+      </c>
+      <c r="E240" t="s">
+        <v>438</v>
+      </c>
+      <c r="G240" t="s">
+        <v>439</v>
+      </c>
+      <c r="H240" t="s">
+        <v>439</v>
+      </c>
+      <c r="I240" t="s">
+        <v>19</v>
+      </c>
+      <c r="J240" t="s">
+        <v>20</v>
+      </c>
+      <c r="K240" t="s">
+        <v>432</v>
+      </c>
+      <c r="L240" t="s">
+        <v>440</v>
+      </c>
+      <c r="M240" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N240" s="6">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>45481</v>
+      </c>
+      <c r="B241" t="s">
+        <v>330</v>
+      </c>
+      <c r="C241" t="s">
+        <v>441</v>
+      </c>
+      <c r="D241">
+        <v>8</v>
+      </c>
+      <c r="E241" t="s">
+        <v>442</v>
+      </c>
+      <c r="G241" t="s">
+        <v>300</v>
+      </c>
+      <c r="H241" t="s">
+        <v>301</v>
+      </c>
+      <c r="I241" t="s">
+        <v>19</v>
+      </c>
+      <c r="J241" t="s">
+        <v>20</v>
+      </c>
+      <c r="K241" t="s">
+        <v>432</v>
+      </c>
+      <c r="L241" t="s">
+        <v>443</v>
+      </c>
+      <c r="M241" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N241" s="6">
+        <v>2.7750000000000004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>330</v>
+      </c>
+      <c r="C242" t="s">
+        <v>444</v>
+      </c>
+      <c r="D242">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s">
+        <v>445</v>
+      </c>
+      <c r="G242" t="s">
+        <v>122</v>
+      </c>
+      <c r="H242" t="s">
+        <v>309</v>
+      </c>
+      <c r="I242" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242" t="s">
+        <v>20</v>
+      </c>
+      <c r="K242" t="s">
+        <v>345</v>
+      </c>
+      <c r="L242" t="s">
+        <v>446</v>
+      </c>
+      <c r="M242" s="6">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="N242" s="6">
+        <v>3.3214285714285721</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B243" t="s">
+        <v>330</v>
+      </c>
+      <c r="C243" t="s">
+        <v>447</v>
+      </c>
+      <c r="D243">
+        <v>18</v>
+      </c>
+      <c r="E243" t="s">
+        <v>448</v>
+      </c>
+      <c r="G243" t="s">
+        <v>17</v>
+      </c>
+      <c r="H243" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" t="s">
+        <v>20</v>
+      </c>
+      <c r="K243" t="s">
+        <v>345</v>
+      </c>
+      <c r="L243" t="s">
+        <v>449</v>
+      </c>
+      <c r="M243" s="6">
+        <v>0.23333333333333345</v>
+      </c>
+      <c r="N243" s="6">
+        <v>2.6555555555555559</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B244" t="s">
+        <v>330</v>
+      </c>
+      <c r="C244" t="s">
+        <v>450</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+      <c r="E244" t="s">
+        <v>448</v>
+      </c>
+      <c r="G244" t="s">
+        <v>17</v>
+      </c>
+      <c r="H244" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244" t="s">
+        <v>20</v>
+      </c>
+      <c r="K244" t="s">
+        <v>345</v>
+      </c>
+      <c r="L244" t="s">
+        <v>449</v>
+      </c>
+      <c r="M244" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N244" s="6">
+        <v>2.2250000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B245" t="s">
+        <v>330</v>
+      </c>
+      <c r="C245" t="s">
+        <v>375</v>
+      </c>
+      <c r="D245">
+        <v>13</v>
+      </c>
+      <c r="E245" t="s">
+        <v>451</v>
+      </c>
+      <c r="G245" t="s">
+        <v>452</v>
+      </c>
+      <c r="H245" t="s">
+        <v>453</v>
+      </c>
+      <c r="I245" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" t="s">
+        <v>20</v>
+      </c>
+      <c r="K245" t="s">
+        <v>345</v>
+      </c>
+      <c r="L245" t="s">
+        <v>454</v>
+      </c>
+      <c r="M245" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N245" s="6">
+        <v>1.9076923076923076</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>45482</v>
+      </c>
+      <c r="B246" t="s">
+        <v>330</v>
+      </c>
+      <c r="C246" t="s">
+        <v>455</v>
+      </c>
+      <c r="D246">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>456</v>
+      </c>
+      <c r="G246" t="s">
+        <v>300</v>
+      </c>
+      <c r="H246" t="s">
+        <v>301</v>
+      </c>
+      <c r="I246" t="s">
+        <v>19</v>
+      </c>
+      <c r="J246" t="s">
+        <v>20</v>
+      </c>
+      <c r="K246" t="s">
+        <v>345</v>
+      </c>
+      <c r="L246" t="s">
+        <v>457</v>
+      </c>
+      <c r="M246" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="N246" s="6">
+        <v>1.8666666666666669</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B247" t="s">
+        <v>330</v>
+      </c>
+      <c r="C247" t="s">
+        <v>458</v>
+      </c>
+      <c r="D247">
+        <v>10</v>
+      </c>
+      <c r="E247" t="s">
+        <v>459</v>
+      </c>
+      <c r="G247" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" t="s">
+        <v>20</v>
+      </c>
+      <c r="K247" t="s">
+        <v>460</v>
+      </c>
+      <c r="L247" t="s">
+        <v>461</v>
+      </c>
+      <c r="M247" s="6">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N247" s="6">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B248" t="s">
+        <v>330</v>
+      </c>
+      <c r="C248" t="s">
+        <v>462</v>
+      </c>
+      <c r="D248">
+        <v>11</v>
+      </c>
+      <c r="E248" t="s">
+        <v>459</v>
+      </c>
+      <c r="G248" t="s">
+        <v>17</v>
+      </c>
+      <c r="H248" t="s">
+        <v>18</v>
+      </c>
+      <c r="I248" t="s">
+        <v>19</v>
+      </c>
+      <c r="J248" t="s">
+        <v>20</v>
+      </c>
+      <c r="K248" t="s">
+        <v>460</v>
+      </c>
+      <c r="L248" t="s">
+        <v>461</v>
+      </c>
+      <c r="M248" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N248" s="6">
+        <v>0.67272727272727284</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B249" t="s">
+        <v>330</v>
+      </c>
+      <c r="C249" t="s">
+        <v>463</v>
+      </c>
+      <c r="D249">
+        <v>8</v>
+      </c>
+      <c r="E249" t="s">
+        <v>464</v>
+      </c>
+      <c r="G249" t="s">
+        <v>308</v>
+      </c>
+      <c r="H249" t="s">
+        <v>309</v>
+      </c>
+      <c r="I249" t="s">
+        <v>19</v>
+      </c>
+      <c r="J249" t="s">
+        <v>20</v>
+      </c>
+      <c r="K249" t="s">
+        <v>460</v>
+      </c>
+      <c r="L249" t="s">
+        <v>465</v>
+      </c>
+      <c r="M249" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N249" s="6">
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>45483</v>
+      </c>
+      <c r="B250" t="s">
+        <v>330</v>
+      </c>
+      <c r="C250" t="s">
+        <v>466</v>
+      </c>
+      <c r="D250">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>464</v>
+      </c>
+      <c r="G250" t="s">
+        <v>308</v>
+      </c>
+      <c r="H250" t="s">
+        <v>309</v>
+      </c>
+      <c r="I250" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" t="s">
+        <v>20</v>
+      </c>
+      <c r="K250" t="s">
+        <v>460</v>
+      </c>
+      <c r="L250" t="s">
+        <v>465</v>
+      </c>
+      <c r="M250" s="6">
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="N250" s="6">
+        <v>1.9874999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="12">
+        <v>45445</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C251" t="s">
+        <v>469</v>
+      </c>
+      <c r="D251">
+        <v>11</v>
+      </c>
+      <c r="E251" t="s">
+        <v>470</v>
+      </c>
+      <c r="G251" t="s">
+        <v>17</v>
+      </c>
+      <c r="H251" t="s">
+        <v>18</v>
+      </c>
+      <c r="I251" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251" t="s">
+        <v>20</v>
+      </c>
+      <c r="K251" t="s">
+        <v>471</v>
+      </c>
+      <c r="L251" t="s">
+        <v>472</v>
+      </c>
+      <c r="M251">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N251">
+        <v>1.0181818181818181</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="12">
+        <v>45446</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C252" t="s">
+        <v>473</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>474</v>
+      </c>
+      <c r="G252" t="s">
+        <v>41</v>
+      </c>
+      <c r="H252" t="s">
+        <v>475</v>
+      </c>
+      <c r="I252" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252" t="s">
+        <v>20</v>
+      </c>
+      <c r="K252" t="s">
+        <v>476</v>
+      </c>
+      <c r="L252" t="s">
+        <v>477</v>
+      </c>
+      <c r="M252" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N252" s="6">
+        <v>3.0444444444444443</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="12">
+        <v>45446</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C253" t="s">
+        <v>478</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>479</v>
+      </c>
+      <c r="G253" t="s">
+        <v>300</v>
+      </c>
+      <c r="H253" t="s">
+        <v>301</v>
+      </c>
+      <c r="I253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" t="s">
+        <v>480</v>
+      </c>
+      <c r="K253" t="s">
+        <v>476</v>
+      </c>
+      <c r="L253" t="s">
+        <v>481</v>
+      </c>
+      <c r="M253" s="6">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="N253" s="6">
+        <v>2.7499999999999996</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="12">
+        <v>45447</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C254" t="s">
+        <v>482</v>
+      </c>
+      <c r="D254">
+        <v>8</v>
+      </c>
+      <c r="E254" t="s">
+        <v>483</v>
+      </c>
+      <c r="G254" t="s">
+        <v>17</v>
+      </c>
+      <c r="H254" t="s">
+        <v>18</v>
+      </c>
+      <c r="I254" t="s">
+        <v>19</v>
+      </c>
+      <c r="J254" t="s">
+        <v>20</v>
+      </c>
+      <c r="K254" t="s">
+        <v>484</v>
+      </c>
+      <c r="L254" t="s">
+        <v>485</v>
+      </c>
+      <c r="M254">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N254">
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="12">
+        <v>45447</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C255" t="s">
+        <v>486</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>487</v>
+      </c>
+      <c r="G255" t="s">
+        <v>74</v>
+      </c>
+      <c r="H255" t="s">
+        <v>75</v>
+      </c>
+      <c r="I255" t="s">
+        <v>19</v>
+      </c>
+      <c r="J255" t="s">
+        <v>20</v>
+      </c>
+      <c r="K255" t="s">
+        <v>488</v>
+      </c>
+      <c r="L255" t="s">
+        <v>489</v>
+      </c>
+      <c r="M255">
+        <v>0.3</v>
+      </c>
+      <c r="N255">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="12">
+        <v>45448</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C256" t="s">
+        <v>490</v>
+      </c>
+      <c r="D256">
+        <v>8</v>
+      </c>
+      <c r="E256" t="s">
+        <v>491</v>
+      </c>
+      <c r="G256" t="s">
+        <v>300</v>
+      </c>
+      <c r="H256" t="s">
+        <v>301</v>
+      </c>
+      <c r="I256" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" t="s">
+        <v>492</v>
+      </c>
+      <c r="K256" t="s">
+        <v>488</v>
+      </c>
+      <c r="L256" t="s">
+        <v>493</v>
+      </c>
+      <c r="M256" s="6">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="N256" s="6">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="12">
+        <v>45451</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C257" t="s">
+        <v>494</v>
+      </c>
+      <c r="D257">
+        <v>5</v>
+      </c>
+      <c r="E257" t="s">
+        <v>495</v>
+      </c>
+      <c r="G257" t="s">
+        <v>496</v>
+      </c>
+      <c r="H257" t="s">
+        <v>497</v>
+      </c>
+      <c r="I257" t="s">
+        <v>19</v>
+      </c>
+      <c r="J257" t="s">
+        <v>498</v>
+      </c>
+      <c r="K257" t="s">
+        <v>471</v>
+      </c>
+      <c r="L257" t="s">
+        <v>499</v>
+      </c>
+      <c r="M257" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N257" s="6">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="12">
+        <v>45451</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C258" t="s">
+        <v>500</v>
+      </c>
+      <c r="D258">
+        <v>11</v>
+      </c>
+      <c r="E258" t="s">
+        <v>501</v>
+      </c>
+      <c r="G258" t="s">
+        <v>300</v>
+      </c>
+      <c r="H258" t="s">
+        <v>301</v>
+      </c>
+      <c r="I258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" t="s">
+        <v>20</v>
+      </c>
+      <c r="K258" t="s">
+        <v>471</v>
+      </c>
+      <c r="L258" t="s">
+        <v>502</v>
+      </c>
+      <c r="M258" s="6">
+        <v>0.13636363636363641</v>
+      </c>
+      <c r="N258" s="6">
+        <v>1.6818181818181819</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="12">
+        <v>45452</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C259" t="s">
+        <v>503</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259" t="s">
+        <v>504</v>
+      </c>
+      <c r="G259" t="s">
+        <v>90</v>
+      </c>
+      <c r="H259" t="s">
+        <v>91</v>
+      </c>
+      <c r="I259" t="s">
+        <v>19</v>
+      </c>
+      <c r="J259" t="s">
+        <v>492</v>
+      </c>
+      <c r="K259" t="s">
+        <v>505</v>
+      </c>
+      <c r="M259" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N259" s="6">
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="12">
+        <v>45452</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C260" t="s">
+        <v>506</v>
+      </c>
+      <c r="D260">
+        <v>16</v>
+      </c>
+      <c r="E260" t="s">
+        <v>507</v>
+      </c>
+      <c r="G260" t="s">
+        <v>17</v>
+      </c>
+      <c r="H260" t="s">
+        <v>18</v>
+      </c>
+      <c r="I260" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260" t="s">
+        <v>20</v>
+      </c>
+      <c r="K260" t="s">
+        <v>505</v>
+      </c>
+      <c r="L260" t="s">
+        <v>508</v>
+      </c>
+      <c r="M260" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="N260" s="6">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="12">
+        <v>45458</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C261" t="s">
+        <v>509</v>
+      </c>
+      <c r="D261">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>510</v>
+      </c>
+      <c r="G261" t="s">
+        <v>17</v>
+      </c>
+      <c r="H261" t="s">
+        <v>25</v>
+      </c>
+      <c r="I261" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261" t="s">
+        <v>20</v>
+      </c>
+      <c r="K261" t="s">
+        <v>471</v>
+      </c>
+      <c r="L261" t="s">
+        <v>511</v>
+      </c>
+      <c r="M261">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N261">
+        <v>1.0444444444444445</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="12">
+        <v>45459</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C262" t="s">
+        <v>512</v>
+      </c>
+      <c r="D262">
+        <v>16</v>
+      </c>
+      <c r="E262" t="s">
+        <v>513</v>
+      </c>
+      <c r="G262" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" t="s">
+        <v>18</v>
+      </c>
+      <c r="I262" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262" t="s">
+        <v>20</v>
+      </c>
+      <c r="K262" t="s">
+        <v>514</v>
+      </c>
+      <c r="L262" t="s">
+        <v>515</v>
+      </c>
+      <c r="M262" s="6">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="N262" s="6">
+        <v>1.4125000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="12">
+        <v>45460</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C263" t="s">
+        <v>516</v>
+      </c>
+      <c r="D263">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>517</v>
+      </c>
+      <c r="G263" t="s">
+        <v>90</v>
+      </c>
+      <c r="H263" t="s">
+        <v>91</v>
+      </c>
+      <c r="I263" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" t="s">
+        <v>20</v>
+      </c>
+      <c r="K263" t="s">
+        <v>518</v>
+      </c>
+      <c r="L263" t="s">
+        <v>519</v>
+      </c>
+      <c r="M263" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N263" s="6">
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="12">
+        <v>45460</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C264" t="s">
+        <v>520</v>
+      </c>
+      <c r="D264">
+        <v>7</v>
+      </c>
+      <c r="E264" t="s">
+        <v>521</v>
+      </c>
+      <c r="G264" t="s">
+        <v>65</v>
+      </c>
+      <c r="H264" t="s">
+        <v>18</v>
+      </c>
+      <c r="I264" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264" t="s">
+        <v>20</v>
+      </c>
+      <c r="K264" t="s">
+        <v>518</v>
+      </c>
+      <c r="L264" t="s">
+        <v>522</v>
+      </c>
+      <c r="M264" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N264" s="6">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="12">
+        <v>45461</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C265" t="s">
+        <v>523</v>
+      </c>
+      <c r="D265">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>524</v>
+      </c>
+      <c r="G265" t="s">
+        <v>300</v>
+      </c>
+      <c r="H265" t="s">
+        <v>301</v>
+      </c>
+      <c r="I265" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265" t="s">
+        <v>20</v>
+      </c>
+      <c r="K265" t="s">
+        <v>525</v>
+      </c>
+      <c r="M265" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N265" s="6">
+        <v>1.4222222222222223</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="12">
+        <v>45461</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C266" t="s">
+        <v>526</v>
+      </c>
+      <c r="D266">
+        <v>6</v>
+      </c>
+      <c r="E266" t="s">
+        <v>527</v>
+      </c>
+      <c r="G266" t="s">
+        <v>74</v>
+      </c>
+      <c r="H266" t="s">
+        <v>528</v>
+      </c>
+      <c r="I266" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" t="s">
+        <v>20</v>
+      </c>
+      <c r="K266" t="s">
+        <v>525</v>
+      </c>
+      <c r="L266" t="s">
+        <v>529</v>
+      </c>
+      <c r="M266" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="N266" s="6">
+        <v>1.1833333333333333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="12">
+        <v>45464</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C267" t="s">
+        <v>530</v>
+      </c>
+      <c r="D267">
+        <v>6</v>
+      </c>
+      <c r="E267" t="s">
+        <v>531</v>
+      </c>
+      <c r="G267" t="s">
+        <v>496</v>
+      </c>
+      <c r="H267" t="s">
+        <v>532</v>
+      </c>
+      <c r="I267" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" t="s">
+        <v>533</v>
+      </c>
+      <c r="K267" t="s">
+        <v>534</v>
+      </c>
+      <c r="M267" s="6">
+        <v>0.23333333333333336</v>
+      </c>
+      <c r="N267" s="6">
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="12">
+        <v>45464</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C268" t="s">
+        <v>535</v>
+      </c>
+      <c r="D268">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s">
+        <v>536</v>
+      </c>
+      <c r="G268" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" t="s">
+        <v>25</v>
+      </c>
+      <c r="I268" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" t="s">
+        <v>492</v>
+      </c>
+      <c r="K268" t="s">
+        <v>534</v>
+      </c>
+      <c r="L268" t="s">
+        <v>537</v>
+      </c>
+      <c r="M268" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N268" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="12">
+        <v>45473</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C269" t="s">
+        <v>538</v>
+      </c>
+      <c r="D269">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>539</v>
+      </c>
+      <c r="G269" t="s">
+        <v>496</v>
+      </c>
+      <c r="H269" t="s">
+        <v>497</v>
+      </c>
+      <c r="I269" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" t="s">
+        <v>492</v>
+      </c>
+      <c r="K269" t="s">
+        <v>540</v>
+      </c>
+      <c r="L269" t="s">
+        <v>440</v>
+      </c>
+      <c r="M269" s="6">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N269" s="6">
+        <v>0.95555555555555549</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N269" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="17:58 - 18:06"/>
+        <filter val="17:58 - 18:07"/>
+        <filter val="17:58 - 18:13"/>
+        <filter val="17:59 - 18:11"/>
+        <filter val="17:59 - 18:16"/>
+        <filter val="17:59 - 18:22"/>
+        <filter val="18:00 - 18:07"/>
+        <filter val="18:00 - 18:08"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>